--- a/add-matchs-tool/data/round_table_matchs.xlsx
+++ b/add-matchs-tool/data/round_table_matchs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenkhoa/Desktop/firebird/add-matchs-tool/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenkhoa/Desktop/firebird/testnet-minigame/add-matchs-tool/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365393D8-B2A1-3745-96FF-C19FD6E461DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BB4931-0BE1-654E-8DC9-DB3D8E0018FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{BE3B438B-38A7-4CD8-8BE7-9E446A9B2CDC}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{4A9AD0B4-5107-4E09-AD2C-D56699159281}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{EE2F20B3-2CAB-4FD8-97BE-93C792EE71D7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{4A9AD0B4-5107-4E09-AD2C-D56699159281}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{BE3B438B-38A7-4CD8-8BE7-9E446A9B2CDC}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="141">
   <si>
     <t>Type</t>
   </si>
@@ -411,6 +411,60 @@
   <si>
     <t>Al Janoub Stadium</t>
   </si>
+  <si>
+    <t>home_icon</t>
+  </si>
+  <si>
+    <t>away_icon</t>
+  </si>
+  <si>
+    <t>MOROCCO</t>
+  </si>
+  <si>
+    <t>CROATIA</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>COSTA RICA</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>CAMEROON</t>
+  </si>
+  <si>
+    <t>URUGUAY</t>
+  </si>
+  <si>
+    <t>SOUTH KOREA</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>GHANA</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t>SERBIA</t>
+  </si>
 </sst>
 </file>
 
@@ -522,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -642,15 +696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -669,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,12 +781,31 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -753,30 +817,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,735 +1040,4112 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" style="28"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.6640625" style="45"/>
+    <col min="4" max="4" width="23.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" style="45"/>
+    <col min="8" max="8" width="19.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" style="45"/>
+    <col min="12" max="12" width="23.83203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="12.6640625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:27" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="G1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="K1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="L1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="M1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="N1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="O1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="P1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="Q1" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="R1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="S1" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="T1" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="U1" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="V1" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="W1" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="X1" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="Y1" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="Z1" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="AA1" s="28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="45">
+    <row r="2" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="44">
         <v>1668960000</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="44">
         <v>10230541</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="45">
-        <v>0</v>
-      </c>
-      <c r="F2" s="45">
-        <v>0</v>
-      </c>
-      <c r="G2" s="46" t="s">
+      <c r="E2" s="44">
+        <v>7643</v>
+      </c>
+      <c r="F2" s="44">
+        <v>0</v>
+      </c>
+      <c r="G2" s="44">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="45">
-        <v>0</v>
-      </c>
-      <c r="I2" s="45">
-        <v>0</v>
-      </c>
-      <c r="J2" s="46" t="s">
+      <c r="I2" s="44">
+        <v>21</v>
+      </c>
+      <c r="J2" s="44">
+        <v>0</v>
+      </c>
+      <c r="K2" s="44">
+        <v>0</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="46">
+      <c r="M2" s="29">
         <v>1</v>
       </c>
-      <c r="L2" s="46">
-        <v>0</v>
-      </c>
-      <c r="M2" s="46">
-        <v>0</v>
-      </c>
-      <c r="N2" s="46">
+      <c r="N2" s="29">
+        <v>0</v>
+      </c>
+      <c r="O2" s="29">
+        <v>0</v>
+      </c>
+      <c r="P2" s="29">
         <v>1.74</v>
       </c>
-      <c r="O2" s="46">
+      <c r="Q2" s="29">
         <v>0.5</v>
       </c>
-      <c r="P2" s="46">
+      <c r="R2" s="29">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="S2" s="29">
         <v>1.99</v>
       </c>
-      <c r="R2" s="46">
+      <c r="T2" s="29">
         <v>2.5</v>
       </c>
-      <c r="S2" s="46">
+      <c r="U2" s="29">
         <v>1.95</v>
       </c>
-      <c r="T2" s="46">
+      <c r="V2" s="29">
         <v>5.45</v>
       </c>
-      <c r="U2" s="46">
+      <c r="W2" s="29">
         <v>2.1</v>
       </c>
-      <c r="V2" s="46">
+      <c r="X2" s="29">
         <v>2.94</v>
       </c>
-      <c r="W2" s="46">
+      <c r="Y2" s="29">
         <v>3.82</v>
       </c>
-      <c r="X2" s="46">
+      <c r="Z2" s="29">
         <v>3.48</v>
       </c>
-      <c r="Y2" s="46">
+      <c r="AA2" s="29">
         <v>2.25</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45">
+    <row r="3" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>1669035600</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44">
         <v>10230543</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="45">
-        <v>0</v>
-      </c>
-      <c r="F3" s="45">
-        <v>0</v>
-      </c>
-      <c r="G3" s="46" t="s">
+      <c r="E3" s="44">
+        <v>16</v>
+      </c>
+      <c r="F3" s="44">
+        <v>0</v>
+      </c>
+      <c r="G3" s="44">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="45">
-        <v>0</v>
-      </c>
-      <c r="I3" s="45">
-        <v>0</v>
-      </c>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="44">
+        <v>28</v>
+      </c>
+      <c r="J3" s="44">
+        <v>0</v>
+      </c>
+      <c r="K3" s="44">
+        <v>0</v>
+      </c>
+      <c r="L3" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="45">
+      <c r="M3" s="44">
         <v>1</v>
       </c>
-      <c r="L3" s="46">
-        <v>0</v>
-      </c>
-      <c r="M3" s="46">
-        <v>0</v>
-      </c>
-      <c r="N3" s="46">
+      <c r="N3" s="29">
+        <v>0</v>
+      </c>
+      <c r="O3" s="29">
+        <v>0</v>
+      </c>
+      <c r="P3" s="29">
+        <v>1.56</v>
+      </c>
+      <c r="Q3" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="29">
+        <v>2.7</v>
+      </c>
+      <c r="S3" s="29">
+        <v>2.09</v>
+      </c>
+      <c r="T3" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="U3" s="29">
+        <v>1.86</v>
+      </c>
+      <c r="V3" s="29">
+        <v>1.93</v>
+      </c>
+      <c r="W3" s="29">
+        <v>2.4</v>
+      </c>
+      <c r="X3" s="44">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="29">
+        <v>1.33</v>
+      </c>
+      <c r="Z3" s="29">
+        <v>5.25</v>
+      </c>
+      <c r="AA3" s="44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="44">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44">
+        <v>1669046400</v>
+      </c>
+      <c r="C4" s="44">
+        <v>10230533</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="44">
+        <v>1043</v>
+      </c>
+      <c r="F4" s="44">
+        <v>0</v>
+      </c>
+      <c r="G4" s="44">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="44">
+        <v>36</v>
+      </c>
+      <c r="J4" s="44">
+        <v>0</v>
+      </c>
+      <c r="K4" s="44">
+        <v>0</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="44">
+        <v>1</v>
+      </c>
+      <c r="N4" s="29">
+        <v>0</v>
+      </c>
+      <c r="O4" s="29">
+        <v>0</v>
+      </c>
+      <c r="P4" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="Q4" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="29">
+        <v>2.75</v>
+      </c>
+      <c r="S4" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="T4" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="U4" s="29">
+        <v>2.09</v>
+      </c>
+      <c r="V4" s="29">
+        <v>6.03</v>
+      </c>
+      <c r="W4" s="29">
+        <v>2.25</v>
+      </c>
+      <c r="X4" s="29">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Y4" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="Z4" s="29">
+        <v>3.92</v>
+      </c>
+      <c r="AA4" s="29">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="44">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1669057200</v>
+      </c>
+      <c r="C5" s="44">
+        <v>10230548</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="44">
+        <v>37</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0</v>
+      </c>
+      <c r="G5" s="44">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="44">
+        <v>7350</v>
+      </c>
+      <c r="J5" s="44">
+        <v>0</v>
+      </c>
+      <c r="K5" s="44">
+        <v>0</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="44">
+        <v>1</v>
+      </c>
+      <c r="N5" s="29">
+        <v>0</v>
+      </c>
+      <c r="O5" s="29">
+        <v>0</v>
+      </c>
+      <c r="P5" s="29">
+        <v>1.6</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="29">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="S5" s="29">
+        <v>1.55</v>
+      </c>
+      <c r="T5" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="U5" s="29">
+        <v>2.7</v>
+      </c>
+      <c r="V5" s="29">
+        <v>3.32</v>
+      </c>
+      <c r="W5" s="29">
+        <v>2.06</v>
+      </c>
+      <c r="X5" s="44">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="29">
+        <v>2.54</v>
+      </c>
+      <c r="Z5" s="29">
+        <v>3.24</v>
+      </c>
+      <c r="AA5" s="29">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="44">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1669111200</v>
+      </c>
+      <c r="C6" s="44">
+        <v>10230528</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="44">
+        <v>24</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="44">
+        <v>1489</v>
+      </c>
+      <c r="J6" s="44">
+        <v>0</v>
+      </c>
+      <c r="K6" s="44">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" s="44">
+        <v>1</v>
+      </c>
+      <c r="N6" s="29">
+        <v>0</v>
+      </c>
+      <c r="O6" s="29">
+        <v>0</v>
+      </c>
+      <c r="P6" s="29">
+        <v>2.59</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="R6" s="29">
+        <v>1.56</v>
+      </c>
+      <c r="S6" s="29">
+        <v>1.69</v>
+      </c>
+      <c r="T6" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U6" s="44">
+        <v>2.35</v>
+      </c>
+      <c r="V6" s="29">
+        <v>1.65</v>
+      </c>
+      <c r="W6" s="29">
+        <v>2.87</v>
+      </c>
+      <c r="X6" s="29">
+        <v>13.12</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>1.2</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>8.1</v>
+      </c>
+      <c r="AA6" s="44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="44">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1669122000</v>
+      </c>
+      <c r="C7" s="44">
+        <v>10230576</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="44">
+        <v>50</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="44">
+        <v>56</v>
+      </c>
+      <c r="J7" s="44">
+        <v>0</v>
+      </c>
+      <c r="K7" s="44">
+        <v>0</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="44">
+        <v>1</v>
+      </c>
+      <c r="N7" s="29">
+        <v>0</v>
+      </c>
+      <c r="O7" s="29">
+        <v>0</v>
+      </c>
+      <c r="P7" s="29">
+        <v>1.48</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="29">
+        <v>2.8</v>
+      </c>
+      <c r="S7" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T7" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="U7" s="44">
+        <v>2.78</v>
+      </c>
+      <c r="V7" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W7" s="29">
+        <v>2.34</v>
+      </c>
+      <c r="X7" s="29">
+        <v>7.76</v>
+      </c>
+      <c r="Y7" s="29">
+        <v>1.48</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>4.7</v>
+      </c>
+      <c r="AA7" s="44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="44">
+        <v>7</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1669132800</v>
+      </c>
+      <c r="C8" s="44">
+        <v>10230565</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="44">
+        <v>6</v>
+      </c>
+      <c r="F8" s="44">
+        <v>0</v>
+      </c>
+      <c r="G8" s="44">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="44">
+        <v>7463</v>
+      </c>
+      <c r="J8" s="44">
+        <v>0</v>
+      </c>
+      <c r="K8" s="44">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" s="44">
+        <v>1</v>
+      </c>
+      <c r="N8" s="29">
+        <v>0</v>
+      </c>
+      <c r="O8" s="29">
+        <v>0</v>
+      </c>
+      <c r="P8" s="29">
+        <v>1.78</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="29">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="S8" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="T8" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="U8" s="44">
+        <v>1.6</v>
+      </c>
+      <c r="V8" s="29">
+        <v>3.64</v>
+      </c>
+      <c r="W8" s="29">
+        <v>2.08</v>
+      </c>
+      <c r="X8" s="29">
+        <v>3.51</v>
+      </c>
+      <c r="Y8" s="29">
+        <v>2.83</v>
+      </c>
+      <c r="Z8" s="29">
+        <v>3.19</v>
+      </c>
+      <c r="AA8" s="29">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="44">
+        <v>8</v>
+      </c>
+      <c r="B9" s="44">
+        <v>1669143600</v>
+      </c>
+      <c r="C9" s="44">
+        <v>10230563</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="44">
+        <v>22</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="44">
+        <v>11</v>
+      </c>
+      <c r="J9" s="44">
+        <v>0</v>
+      </c>
+      <c r="K9" s="44">
+        <v>0</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="44">
+        <v>1</v>
+      </c>
+      <c r="N9" s="29">
+        <v>0</v>
+      </c>
+      <c r="O9" s="29">
+        <v>0</v>
+      </c>
+      <c r="P9" s="29">
+        <v>2.14</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="R9" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="S9" s="29">
+        <v>1.73</v>
+      </c>
+      <c r="T9" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="U9" s="44">
+        <v>2.33</v>
+      </c>
+      <c r="V9" s="29">
+        <v>1.72</v>
+      </c>
+      <c r="W9" s="29">
+        <v>2.98</v>
+      </c>
+      <c r="X9" s="29">
+        <v>9.5</v>
+      </c>
+      <c r="Y9" s="29">
+        <v>1.28</v>
+      </c>
+      <c r="Z9" s="29">
+        <v>6.7</v>
+      </c>
+      <c r="AA9" s="44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="44">
+        <v>9</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1669197600</v>
+      </c>
+      <c r="C10" s="44">
+        <v>10230570</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1451</v>
+      </c>
+      <c r="F10" s="44">
+        <v>0</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="44">
+        <v>5</v>
+      </c>
+      <c r="J10" s="44">
+        <v>0</v>
+      </c>
+      <c r="K10" s="44">
+        <v>0</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="44">
+        <v>1</v>
+      </c>
+      <c r="N10" s="29">
+        <v>0</v>
+      </c>
+      <c r="O10" s="29">
+        <v>0</v>
+      </c>
+      <c r="P10" s="29">
+        <v>1.83</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="44">
+        <v>2.16</v>
+      </c>
+      <c r="S10" s="29">
+        <v>2.14</v>
+      </c>
+      <c r="T10" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U10" s="44">
+        <v>1.88</v>
+      </c>
+      <c r="V10" s="29">
+        <v>5.55</v>
+      </c>
+      <c r="W10" s="29">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="X10" s="29">
+        <v>2.72</v>
+      </c>
+      <c r="Y10" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z10" s="29">
+        <v>3.4</v>
+      </c>
+      <c r="AA10" s="44">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="44">
+        <v>10</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1669208400</v>
+      </c>
+      <c r="C11" s="44">
+        <v>10230562</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="44">
+        <v>26</v>
+      </c>
+      <c r="F11" s="44">
+        <v>0</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="44">
+        <v>19</v>
+      </c>
+      <c r="J11" s="44">
+        <v>0</v>
+      </c>
+      <c r="K11" s="44">
+        <v>0</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="44">
+        <v>1</v>
+      </c>
+      <c r="N11" s="29">
+        <v>0</v>
+      </c>
+      <c r="O11" s="29">
+        <v>0</v>
+      </c>
+      <c r="P11" s="29">
+        <v>2.76</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="R11" s="29">
+        <v>1.54</v>
+      </c>
+      <c r="S11" s="29">
+        <v>1.74</v>
+      </c>
+      <c r="T11" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U11" s="44">
+        <v>2.25</v>
+      </c>
+      <c r="V11" s="29">
+        <v>2.04</v>
+      </c>
+      <c r="W11" s="29">
+        <v>2.54</v>
+      </c>
+      <c r="X11" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="Y11" s="29">
+        <v>1.45</v>
+      </c>
+      <c r="Z11" s="29">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="44">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="44">
+        <v>11</v>
+      </c>
+      <c r="B12" s="44">
+        <v>1669219200</v>
+      </c>
+      <c r="C12" s="44">
+        <v>10230571</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="44">
+        <v>8</v>
+      </c>
+      <c r="F12" s="44">
+        <v>0</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="44">
+        <v>15</v>
+      </c>
+      <c r="J12" s="44">
+        <v>0</v>
+      </c>
+      <c r="K12" s="44">
+        <v>0</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="44">
+        <v>1</v>
+      </c>
+      <c r="N12" s="29">
+        <v>0</v>
+      </c>
+      <c r="O12" s="29">
+        <v>0</v>
+      </c>
+      <c r="P12" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="R12" s="29">
+        <v>1.76</v>
+      </c>
+      <c r="S12" s="29">
+        <v>2.85</v>
+      </c>
+      <c r="T12" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="U12" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="V12" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="W12" s="29">
+        <v>2.77</v>
+      </c>
+      <c r="X12" s="29">
+        <v>13.25</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>1.23</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>7.3</v>
+      </c>
+      <c r="AA12" s="44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="44">
+        <v>12</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1669230000</v>
+      </c>
+      <c r="C13" s="44">
+        <v>10230559</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="44">
+        <v>32</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="44">
+        <v>45</v>
+      </c>
+      <c r="J13" s="44">
+        <v>0</v>
+      </c>
+      <c r="K13" s="44">
+        <v>0</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="44">
+        <v>1</v>
+      </c>
+      <c r="N13" s="29">
+        <v>0</v>
+      </c>
+      <c r="O13" s="29">
+        <v>0</v>
+      </c>
+      <c r="P13" s="29">
+        <v>2.79</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="R13" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="S13" s="29">
+        <v>1.82</v>
+      </c>
+      <c r="T13" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U13" s="44">
+        <v>2.13</v>
+      </c>
+      <c r="V13" s="29">
+        <v>1.96</v>
+      </c>
+      <c r="W13" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="X13" s="29">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>1.39</v>
+      </c>
+      <c r="Z13" s="29">
+        <v>5.45</v>
+      </c>
+      <c r="AA13" s="44">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="44">
+        <v>13</v>
+      </c>
+      <c r="B14" s="44">
+        <v>1669284000</v>
+      </c>
+      <c r="C14" s="44">
+        <v>10230569</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="44">
+        <v>20</v>
+      </c>
+      <c r="F14" s="44">
+        <v>0</v>
+      </c>
+      <c r="G14" s="44">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="44">
+        <v>7</v>
+      </c>
+      <c r="J14" s="44">
+        <v>0</v>
+      </c>
+      <c r="K14" s="44">
+        <v>0</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="44">
+        <v>1</v>
+      </c>
+      <c r="N14" s="29">
+        <v>0</v>
+      </c>
+      <c r="O14" s="29">
+        <v>0</v>
+      </c>
+      <c r="P14" s="29">
+        <v>1.55</v>
+      </c>
+      <c r="Q14" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="S14" s="29">
+        <v>1.46</v>
+      </c>
+      <c r="T14" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="U14" s="44">
+        <v>2.98</v>
+      </c>
+      <c r="V14" s="29">
+        <v>2.61</v>
+      </c>
+      <c r="W14" s="29">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="X14" s="29">
+        <v>6.25</v>
+      </c>
+      <c r="Y14" s="29">
+        <v>1.84</v>
+      </c>
+      <c r="Z14" s="29">
+        <v>3.67</v>
+      </c>
+      <c r="AA14" s="44">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="44">
+        <v>14</v>
+      </c>
+      <c r="B15" s="44">
+        <v>1669294800</v>
+      </c>
+      <c r="C15" s="44">
+        <v>10230530</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="44">
+        <v>14</v>
+      </c>
+      <c r="F15" s="44">
+        <v>0</v>
+      </c>
+      <c r="G15" s="44">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="44">
+        <v>35</v>
+      </c>
+      <c r="J15" s="44">
+        <v>0</v>
+      </c>
+      <c r="K15" s="44">
+        <v>0</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" s="44">
+        <v>1</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0</v>
+      </c>
+      <c r="O15" s="29">
+        <v>0</v>
+      </c>
+      <c r="P15" s="29">
+        <v>1.83</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R15" s="29">
         <v>2.12</v>
       </c>
-      <c r="O3" s="45">
+      <c r="S15" s="29">
+        <v>2.13</v>
+      </c>
+      <c r="T15" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U15" s="44">
+        <v>1.8</v>
+      </c>
+      <c r="V15" s="29">
+        <v>2.66</v>
+      </c>
+      <c r="W15" s="29">
+        <v>2.1</v>
+      </c>
+      <c r="X15" s="29">
+        <v>5.78</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="Z15" s="29">
+        <v>3.6</v>
+      </c>
+      <c r="AA15" s="44">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="44">
+        <v>15</v>
+      </c>
+      <c r="B16" s="44">
+        <v>1669305600</v>
+      </c>
+      <c r="C16" s="44">
+        <v>10230534</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="44">
+        <v>27</v>
+      </c>
+      <c r="F16" s="44">
+        <v>0</v>
+      </c>
+      <c r="G16" s="44">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="44">
+        <v>30</v>
+      </c>
+      <c r="J16" s="44">
+        <v>0</v>
+      </c>
+      <c r="K16" s="44">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M16" s="44">
         <v>1</v>
       </c>
-      <c r="P3" s="46">
-        <v>1.86</v>
-      </c>
-      <c r="Q3" s="46">
+      <c r="N16" s="29">
+        <v>0</v>
+      </c>
+      <c r="O16" s="29">
+        <v>0</v>
+      </c>
+      <c r="P16" s="29">
+        <v>3.29</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="R16" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="S16" s="29">
+        <v>2.17</v>
+      </c>
+      <c r="T16" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U16" s="44">
+        <v>1.82</v>
+      </c>
+      <c r="V16" s="29">
+        <v>2.08</v>
+      </c>
+      <c r="W16" s="29">
+        <v>2.31</v>
+      </c>
+      <c r="X16" s="29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Y16" s="29">
+        <v>1.52</v>
+      </c>
+      <c r="Z16" s="29">
+        <v>4.7</v>
+      </c>
+      <c r="AA16" s="44">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="44">
+        <v>16</v>
+      </c>
+      <c r="B17" s="44">
+        <v>1669316400</v>
+      </c>
+      <c r="C17" s="44">
+        <v>10230567</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="44">
+        <v>4</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0</v>
+      </c>
+      <c r="G17" s="44">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="44">
+        <v>955</v>
+      </c>
+      <c r="J17" s="44">
+        <v>0</v>
+      </c>
+      <c r="K17" s="44">
+        <v>0</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="44">
+        <v>1</v>
+      </c>
+      <c r="N17" s="29">
+        <v>0</v>
+      </c>
+      <c r="O17" s="29">
+        <v>0</v>
+      </c>
+      <c r="P17" s="29">
+        <v>2.83</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="R17" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="S17" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="T17" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U17" s="44">
+        <v>2.13</v>
+      </c>
+      <c r="V17" s="29">
+        <v>2.11</v>
+      </c>
+      <c r="W17" s="29">
+        <v>2.41</v>
+      </c>
+      <c r="X17" s="29">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="29">
+        <v>1.51</v>
+      </c>
+      <c r="Z17" s="29">
+        <v>4.7</v>
+      </c>
+      <c r="AA17" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="44">
+        <v>17</v>
+      </c>
+      <c r="B18" s="44">
+        <v>1669370400</v>
+      </c>
+      <c r="C18" s="44">
+        <v>10230556</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="44">
+        <v>7350</v>
+      </c>
+      <c r="F18" s="44">
+        <v>0</v>
+      </c>
+      <c r="G18" s="44">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="44">
+        <v>28</v>
+      </c>
+      <c r="J18" s="44">
+        <v>0</v>
+      </c>
+      <c r="K18" s="44">
+        <v>0</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M18" s="44">
+        <v>2</v>
+      </c>
+      <c r="N18" s="29">
+        <v>0</v>
+      </c>
+      <c r="O18" s="29">
+        <v>0</v>
+      </c>
+      <c r="P18" s="44">
+        <v>1.9</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R18" s="29">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="S18" s="29">
+        <v>2.65</v>
+      </c>
+      <c r="T18" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U18" s="44">
+        <v>1.57</v>
+      </c>
+      <c r="V18" s="29">
+        <v>3.03</v>
+      </c>
+      <c r="W18" s="29">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="X18" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y18" s="29">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z18" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="AA18" s="44">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="44">
+        <v>18</v>
+      </c>
+      <c r="B19" s="44">
+        <v>1669381200</v>
+      </c>
+      <c r="C19" s="44">
+        <v>10230537</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="44">
+        <v>7643</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0</v>
+      </c>
+      <c r="G19" s="44">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="44">
+        <v>1043</v>
+      </c>
+      <c r="J19" s="44">
+        <v>0</v>
+      </c>
+      <c r="K19" s="44">
+        <v>0</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="44">
+        <v>2</v>
+      </c>
+      <c r="N19" s="29">
+        <v>0</v>
+      </c>
+      <c r="O19" s="29">
+        <v>0</v>
+      </c>
+      <c r="P19" s="44">
+        <v>1.84</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R19" s="29">
+        <v>2.11</v>
+      </c>
+      <c r="S19" s="29">
+        <v>2.4</v>
+      </c>
+      <c r="T19" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U19" s="44">
+        <v>1.66</v>
+      </c>
+      <c r="V19" s="44">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="W19" s="29">
+        <v>2.08</v>
+      </c>
+      <c r="X19" s="29">
+        <v>2.99</v>
+      </c>
+      <c r="Y19" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="Z19" s="29">
+        <v>3.4</v>
+      </c>
+      <c r="AA19" s="44">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="44">
+        <v>19</v>
+      </c>
+      <c r="B20" s="44">
+        <v>1669392000</v>
+      </c>
+      <c r="C20" s="44">
+        <v>10230529</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="44">
+        <v>36</v>
+      </c>
+      <c r="F20" s="44">
+        <v>0</v>
+      </c>
+      <c r="G20" s="44">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="44">
+        <v>21</v>
+      </c>
+      <c r="J20" s="44">
+        <v>0</v>
+      </c>
+      <c r="K20" s="44">
+        <v>0</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="44">
+        <v>2</v>
+      </c>
+      <c r="N20" s="29">
+        <v>0</v>
+      </c>
+      <c r="O20" s="29">
+        <v>0</v>
+      </c>
+      <c r="P20" s="44">
+        <v>2.92</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="R20" s="29">
+        <v>1.44</v>
+      </c>
+      <c r="S20" s="29">
+        <v>1.9</v>
+      </c>
+      <c r="T20" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U20" s="44">
+        <v>2.1</v>
+      </c>
+      <c r="V20" s="44">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="W20" s="29">
+        <v>2.41</v>
+      </c>
+      <c r="X20" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="Y20" s="29">
+        <v>1.68</v>
+      </c>
+      <c r="Z20" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="AA20" s="44">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="44">
+        <v>20</v>
+      </c>
+      <c r="B21" s="44">
+        <v>1669402800</v>
+      </c>
+      <c r="C21" s="44">
+        <v>10230557</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="44">
+        <v>16</v>
+      </c>
+      <c r="F21" s="44">
+        <v>0</v>
+      </c>
+      <c r="G21" s="44">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="44">
+        <v>37</v>
+      </c>
+      <c r="J21" s="44">
+        <v>0</v>
+      </c>
+      <c r="K21" s="44">
+        <v>0</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="44">
+        <v>2</v>
+      </c>
+      <c r="N21" s="29">
+        <v>0</v>
+      </c>
+      <c r="O21" s="29">
+        <v>0</v>
+      </c>
+      <c r="P21" s="44">
+        <v>1.45</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R21" s="29">
+        <v>2.85</v>
+      </c>
+      <c r="S21" s="29">
+        <v>2.1</v>
+      </c>
+      <c r="T21" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U21" s="44">
+        <v>1.84</v>
+      </c>
+      <c r="V21" s="44">
+        <v>2.37</v>
+      </c>
+      <c r="W21" s="29">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="X21" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="Y21" s="29">
+        <v>1.71</v>
+      </c>
+      <c r="Z21" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA21" s="44">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="44">
+        <v>21</v>
+      </c>
+      <c r="B22" s="44">
+        <v>1669456800</v>
+      </c>
+      <c r="C22" s="44">
+        <v>10230574</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="29">
+        <v>56</v>
+      </c>
+      <c r="F22" s="44">
+        <v>0</v>
+      </c>
+      <c r="G22" s="44">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="44">
+        <v>11</v>
+      </c>
+      <c r="J22" s="44">
+        <v>0</v>
+      </c>
+      <c r="K22" s="44">
+        <v>0</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="44">
+        <v>2</v>
+      </c>
+      <c r="N22" s="29">
+        <v>0</v>
+      </c>
+      <c r="O22" s="29">
+        <v>0</v>
+      </c>
+      <c r="P22" s="44">
+        <v>1.59</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R22" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="S22" s="29">
+        <v>1.49</v>
+      </c>
+      <c r="T22" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="U22" s="44">
+        <v>2.82</v>
+      </c>
+      <c r="V22" s="44">
+        <v>3.8</v>
+      </c>
+      <c r="W22" s="29">
+        <v>1.99</v>
+      </c>
+      <c r="X22" s="29">
+        <v>2.62</v>
+      </c>
+      <c r="Y22" s="29">
+        <v>2.95</v>
+      </c>
+      <c r="Z22" s="29">
+        <v>3.15</v>
+      </c>
+      <c r="AA22" s="44">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="44">
+        <v>22</v>
+      </c>
+      <c r="B23" s="44">
+        <v>1669467600</v>
+      </c>
+      <c r="C23" s="44">
+        <v>10230542</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="29">
+        <v>7463</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="44">
+        <v>1489</v>
+      </c>
+      <c r="J23" s="44">
+        <v>0</v>
+      </c>
+      <c r="K23" s="44">
+        <v>0</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" s="44">
+        <v>2</v>
+      </c>
+      <c r="N23" s="29">
+        <v>0</v>
+      </c>
+      <c r="O23" s="29">
+        <v>0</v>
+      </c>
+      <c r="P23" s="44">
+        <v>1.47</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R23" s="29">
+        <v>2.85</v>
+      </c>
+      <c r="S23" s="29">
         <v>2.09</v>
       </c>
-      <c r="R3" s="46">
+      <c r="T23" s="44">
         <v>2.5</v>
       </c>
-      <c r="S3" s="46">
-        <v>1.86</v>
-      </c>
-      <c r="T3" s="46">
+      <c r="U23" s="44">
+        <v>1.88</v>
+      </c>
+      <c r="V23" s="44">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="W23" s="29">
+        <v>2.27</v>
+      </c>
+      <c r="X23" s="29">
+        <v>5.85</v>
+      </c>
+      <c r="Y23" s="29">
+        <v>1.68</v>
+      </c>
+      <c r="Z23" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA23" s="44">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="44">
+        <v>23</v>
+      </c>
+      <c r="B24" s="44">
+        <v>1669478400</v>
+      </c>
+      <c r="C24" s="44">
+        <v>10230577</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="29">
+        <v>22</v>
+      </c>
+      <c r="F24" s="44">
+        <v>0</v>
+      </c>
+      <c r="G24" s="44">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="44">
+        <v>50</v>
+      </c>
+      <c r="J24" s="44">
+        <v>0</v>
+      </c>
+      <c r="K24" s="44">
+        <v>0</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="44">
+        <v>2</v>
+      </c>
+      <c r="N24" s="29">
+        <v>0</v>
+      </c>
+      <c r="O24" s="29">
+        <v>0</v>
+      </c>
+      <c r="P24" s="44">
+        <v>1.83</v>
+      </c>
+      <c r="Q24" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S24" s="29">
+        <v>2.35</v>
+      </c>
+      <c r="T24" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U24" s="44">
+        <v>1.72</v>
+      </c>
+      <c r="V24" s="44">
+        <v>2.79</v>
+      </c>
+      <c r="W24" s="29">
+        <v>2.14</v>
+      </c>
+      <c r="X24" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="Y24" s="29">
+        <v>2.1</v>
+      </c>
+      <c r="Z24" s="29">
+        <v>3.45</v>
+      </c>
+      <c r="AA24" s="44">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="44">
+        <v>24</v>
+      </c>
+      <c r="B25" s="44">
+        <v>1669489200</v>
+      </c>
+      <c r="C25" s="44">
+        <v>10230540</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="29">
+        <v>24</v>
+      </c>
+      <c r="F25" s="44">
+        <v>0</v>
+      </c>
+      <c r="G25" s="44">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="44">
+        <v>6</v>
+      </c>
+      <c r="J25" s="44">
+        <v>0</v>
+      </c>
+      <c r="K25" s="44">
+        <v>0</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" s="44">
+        <v>2</v>
+      </c>
+      <c r="N25" s="29">
+        <v>0</v>
+      </c>
+      <c r="O25" s="29">
+        <v>0</v>
+      </c>
+      <c r="P25" s="44">
+        <v>3.22</v>
+      </c>
+      <c r="Q25" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="R25" s="29">
+        <v>1.4</v>
+      </c>
+      <c r="S25" s="29">
+        <v>1.94</v>
+      </c>
+      <c r="T25" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U25" s="44">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="V25" s="44">
+        <v>2.25</v>
+      </c>
+      <c r="W25" s="29">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="X25" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="Y25" s="29">
+        <v>1.63</v>
+      </c>
+      <c r="Z25" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="AA25" s="44">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="44">
+        <v>25</v>
+      </c>
+      <c r="B26" s="44">
+        <v>1669543200</v>
+      </c>
+      <c r="C26" s="44">
+        <v>10230564</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="29">
+        <v>19</v>
+      </c>
+      <c r="F26" s="44">
+        <v>0</v>
+      </c>
+      <c r="G26" s="44">
+        <v>0</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="44">
+        <v>15</v>
+      </c>
+      <c r="J26" s="44">
+        <v>0</v>
+      </c>
+      <c r="K26" s="44">
+        <v>0</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="44">
+        <v>2</v>
+      </c>
+      <c r="N26" s="29">
+        <v>0</v>
+      </c>
+      <c r="O26" s="29">
+        <v>0</v>
+      </c>
+      <c r="P26" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="Q26" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R26" s="29">
+        <v>2.65</v>
+      </c>
+      <c r="S26" s="29">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="T26" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U26" s="44">
+        <v>1.85</v>
+      </c>
+      <c r="V26" s="44">
+        <v>2.66</v>
+      </c>
+      <c r="W26" s="29">
+        <v>2.11</v>
+      </c>
+      <c r="X26" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="Y26" s="29">
         <v>1.93</v>
       </c>
-      <c r="U3" s="46">
-        <v>2.4</v>
-      </c>
-      <c r="V3" s="45">
+      <c r="Z26" s="29">
+        <v>3.47</v>
+      </c>
+      <c r="AA26" s="44">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="44">
+        <v>26</v>
+      </c>
+      <c r="B27" s="44">
+        <v>1669554000</v>
+      </c>
+      <c r="C27" s="44">
+        <v>10230545</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="29">
+        <v>32</v>
+      </c>
+      <c r="F27" s="44">
+        <v>0</v>
+      </c>
+      <c r="G27" s="44">
+        <v>0</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="44">
+        <v>1451</v>
+      </c>
+      <c r="J27" s="44">
+        <v>0</v>
+      </c>
+      <c r="K27" s="44">
+        <v>0</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="44">
+        <v>2</v>
+      </c>
+      <c r="N27" s="29">
+        <v>0</v>
+      </c>
+      <c r="O27" s="29">
+        <v>0</v>
+      </c>
+      <c r="P27" s="44">
+        <v>2.85</v>
+      </c>
+      <c r="Q27" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="R27" s="29">
+        <v>1.45</v>
+      </c>
+      <c r="S27" s="29">
+        <v>1.96</v>
+      </c>
+      <c r="T27" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U27" s="44">
+        <v>1.97</v>
+      </c>
+      <c r="V27" s="44">
+        <v>2.23</v>
+      </c>
+      <c r="W27" s="29">
+        <v>2.36</v>
+      </c>
+      <c r="X27" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="Y27" s="29">
+        <v>1.56</v>
+      </c>
+      <c r="Z27" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="AA27" s="44">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="44">
+        <v>27</v>
+      </c>
+      <c r="B28" s="44">
+        <v>1669564800</v>
+      </c>
+      <c r="C28" s="44">
+        <v>10230550</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="29">
+        <v>5</v>
+      </c>
+      <c r="F28" s="44">
+        <v>0</v>
+      </c>
+      <c r="G28" s="44">
+        <v>0</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="44">
+        <v>45</v>
+      </c>
+      <c r="J28" s="44">
+        <v>0</v>
+      </c>
+      <c r="K28" s="44">
+        <v>0</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" s="44">
+        <v>2</v>
+      </c>
+      <c r="N28" s="29">
+        <v>0</v>
+      </c>
+      <c r="O28" s="29">
+        <v>0</v>
+      </c>
+      <c r="P28" s="44">
+        <v>1.47</v>
+      </c>
+      <c r="Q28" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="29">
+        <v>2.83</v>
+      </c>
+      <c r="S28" s="29">
+        <v>2.12</v>
+      </c>
+      <c r="T28" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U28" s="44">
+        <v>1.84</v>
+      </c>
+      <c r="V28" s="44">
+        <v>2.54</v>
+      </c>
+      <c r="W28" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X28" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y28" s="29">
+        <v>1.85</v>
+      </c>
+      <c r="Z28" s="29">
+        <v>3.98</v>
+      </c>
+      <c r="AA28" s="44">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="44">
+        <v>28</v>
+      </c>
+      <c r="B29" s="44">
+        <v>1669575600</v>
+      </c>
+      <c r="C29" s="44">
+        <v>10230575</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="29">
+        <v>8</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0</v>
+      </c>
+      <c r="G29" s="44">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="44">
+        <v>26</v>
+      </c>
+      <c r="J29" s="44">
+        <v>0</v>
+      </c>
+      <c r="K29" s="44">
+        <v>0</v>
+      </c>
+      <c r="L29" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="44">
+        <v>2</v>
+      </c>
+      <c r="N29" s="29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="29">
+        <v>0</v>
+      </c>
+      <c r="P29" s="44">
+        <v>1.43</v>
+      </c>
+      <c r="Q29" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R29" s="29">
+        <v>2.95</v>
+      </c>
+      <c r="S29" s="29">
+        <v>1.99</v>
+      </c>
+      <c r="T29" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U29" s="44">
+        <v>1.95</v>
+      </c>
+      <c r="V29" s="44">
+        <v>3.23</v>
+      </c>
+      <c r="W29" s="29">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="X29" s="29">
+        <v>3.45</v>
+      </c>
+      <c r="Y29" s="29">
+        <v>2.62</v>
+      </c>
+      <c r="Z29" s="29">
+        <v>3.47</v>
+      </c>
+      <c r="AA29" s="44">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="44">
+        <v>29</v>
+      </c>
+      <c r="B30" s="44">
+        <v>1669629600</v>
+      </c>
+      <c r="C30" s="44">
+        <v>10230568</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="29">
+        <v>7</v>
+      </c>
+      <c r="F30" s="44">
+        <v>0</v>
+      </c>
+      <c r="G30" s="44">
+        <v>0</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="44">
+        <v>955</v>
+      </c>
+      <c r="J30" s="44">
+        <v>0</v>
+      </c>
+      <c r="K30" s="44">
+        <v>0</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="44">
+        <v>2</v>
+      </c>
+      <c r="N30" s="29">
+        <v>0</v>
+      </c>
+      <c r="O30" s="29">
+        <v>0</v>
+      </c>
+      <c r="P30" s="44">
+        <v>1.84</v>
+      </c>
+      <c r="Q30" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R30" s="44">
+        <v>2.08</v>
+      </c>
+      <c r="S30" s="29">
+        <v>1.48</v>
+      </c>
+      <c r="T30" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="U30" s="44">
+        <v>2.95</v>
+      </c>
+      <c r="V30" s="44">
+        <v>5.55</v>
+      </c>
+      <c r="W30" s="29">
+        <v>2.08</v>
+      </c>
+      <c r="X30" s="29">
+        <v>2.75</v>
+      </c>
+      <c r="Y30" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z30" s="29">
+        <v>3.55</v>
+      </c>
+      <c r="AA30" s="44">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="44">
+        <v>30</v>
+      </c>
+      <c r="B31" s="44">
+        <v>1669640400</v>
+      </c>
+      <c r="C31" s="44">
+        <v>10230552</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="29">
+        <v>35</v>
+      </c>
+      <c r="F31" s="44">
+        <v>0</v>
+      </c>
+      <c r="G31" s="44">
+        <v>0</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="44">
+        <v>30</v>
+      </c>
+      <c r="J31" s="44">
+        <v>0</v>
+      </c>
+      <c r="K31" s="44">
+        <v>0</v>
+      </c>
+      <c r="L31" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="44">
+        <v>2</v>
+      </c>
+      <c r="N31" s="29">
+        <v>0</v>
+      </c>
+      <c r="O31" s="29">
+        <v>0</v>
+      </c>
+      <c r="P31" s="44">
+        <v>1.61</v>
+      </c>
+      <c r="Q31" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R31" s="44">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="S31" s="29">
+        <v>1.54</v>
+      </c>
+      <c r="T31" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="U31" s="44">
+        <v>2.69</v>
+      </c>
+      <c r="V31" s="44">
+        <v>3.52</v>
+      </c>
+      <c r="W31" s="29">
+        <v>2</v>
+      </c>
+      <c r="X31" s="29">
+        <v>3.94</v>
+      </c>
+      <c r="Y31" s="29">
+        <v>2.77</v>
+      </c>
+      <c r="Z31" s="29">
+        <v>3.05</v>
+      </c>
+      <c r="AA31" s="44">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="44">
+        <v>31</v>
+      </c>
+      <c r="B32" s="44">
+        <v>1669651200</v>
+      </c>
+      <c r="C32" s="44">
+        <v>10230561</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="29">
+        <v>4</v>
+      </c>
+      <c r="F32" s="44">
+        <v>0</v>
+      </c>
+      <c r="G32" s="44">
+        <v>0</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="44">
+        <v>20</v>
+      </c>
+      <c r="J32" s="44">
+        <v>0</v>
+      </c>
+      <c r="K32" s="44">
+        <v>0</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" s="44">
+        <v>2</v>
+      </c>
+      <c r="N32" s="29">
+        <v>0</v>
+      </c>
+      <c r="O32" s="29">
+        <v>0</v>
+      </c>
+      <c r="P32" s="44">
+        <v>3.04</v>
+      </c>
+      <c r="Q32" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="R32" s="44">
+        <v>1.45</v>
+      </c>
+      <c r="S32" s="29">
+        <v>1.96</v>
+      </c>
+      <c r="T32" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U32" s="44">
+        <v>1.95</v>
+      </c>
+      <c r="V32" s="44">
+        <v>2.25</v>
+      </c>
+      <c r="W32" s="29">
+        <v>2.38</v>
+      </c>
+      <c r="X32" s="29">
+        <v>6.65</v>
+      </c>
+      <c r="Y32" s="29">
+        <v>1.53</v>
+      </c>
+      <c r="Z32" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA32" s="44">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="44">
+        <v>32</v>
+      </c>
+      <c r="B33" s="44">
+        <v>1669662000</v>
+      </c>
+      <c r="C33" s="44">
+        <v>10230539</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="29">
+        <v>27</v>
+      </c>
+      <c r="F33" s="44">
+        <v>0</v>
+      </c>
+      <c r="G33" s="44">
+        <v>0</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="44">
+        <v>14</v>
+      </c>
+      <c r="J33" s="44">
+        <v>0</v>
+      </c>
+      <c r="K33" s="44">
+        <v>0</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="M33" s="44">
+        <v>2</v>
+      </c>
+      <c r="N33" s="29">
+        <v>0</v>
+      </c>
+      <c r="O33" s="29">
+        <v>0</v>
+      </c>
+      <c r="P33" s="44">
+        <v>1.51</v>
+      </c>
+      <c r="Q33" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R33" s="44">
+        <v>2.7</v>
+      </c>
+      <c r="S33" s="29">
+        <v>2.25</v>
+      </c>
+      <c r="T33" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U33" s="44">
+        <v>1.75</v>
+      </c>
+      <c r="V33" s="44">
+        <v>2.85</v>
+      </c>
+      <c r="W33" s="29">
+        <v>2.15</v>
+      </c>
+      <c r="X33" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="Y33" s="29">
+        <v>2.17</v>
+      </c>
+      <c r="Z33" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="AA33" s="44">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="44">
+        <v>33</v>
+      </c>
+      <c r="B34" s="44">
+        <v>1669734000</v>
+      </c>
+      <c r="C34" s="44">
+        <v>10230551</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="29">
+        <v>21</v>
+      </c>
+      <c r="F34" s="44">
+        <v>0</v>
+      </c>
+      <c r="G34" s="44">
+        <v>0</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="44">
+        <v>1043</v>
+      </c>
+      <c r="J34" s="44">
+        <v>0</v>
+      </c>
+      <c r="K34" s="44">
+        <v>0</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" s="44">
+        <v>3</v>
+      </c>
+      <c r="N34" s="29">
+        <v>0</v>
+      </c>
+      <c r="O34" s="29">
+        <v>0</v>
+      </c>
+      <c r="P34" s="44">
+        <v>1.53</v>
+      </c>
+      <c r="Q34" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R34" s="44">
+        <v>2.63</v>
+      </c>
+      <c r="S34" s="29">
+        <v>1.96</v>
+      </c>
+      <c r="T34" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U34" s="44">
+        <v>1.95</v>
+      </c>
+      <c r="V34" s="44">
+        <v>3.6</v>
+      </c>
+      <c r="W34" s="29">
+        <v>2.1</v>
+      </c>
+      <c r="X34" s="29">
+        <v>3.31</v>
+      </c>
+      <c r="Y34" s="29">
+        <v>3.05</v>
+      </c>
+      <c r="Z34" s="29">
+        <v>3.32</v>
+      </c>
+      <c r="AA34" s="44">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="44">
+        <v>34</v>
+      </c>
+      <c r="B35" s="44">
+        <v>1669734000</v>
+      </c>
+      <c r="C35" s="44">
+        <v>10230538</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="29">
+        <v>36</v>
+      </c>
+      <c r="F35" s="44">
+        <v>0</v>
+      </c>
+      <c r="G35" s="44">
+        <v>0</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="44">
+        <v>7643</v>
+      </c>
+      <c r="J35" s="44">
+        <v>0</v>
+      </c>
+      <c r="K35" s="44">
+        <v>0</v>
+      </c>
+      <c r="L35" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="44">
+        <v>3</v>
+      </c>
+      <c r="N35" s="29">
+        <v>0</v>
+      </c>
+      <c r="O35" s="29">
+        <v>0</v>
+      </c>
+      <c r="P35" s="44">
+        <v>2.34</v>
+      </c>
+      <c r="Q35" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="R35" s="44">
+        <v>1.7</v>
+      </c>
+      <c r="S35" s="29">
+        <v>2.75</v>
+      </c>
+      <c r="T35" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="U35" s="44">
+        <v>1.56</v>
+      </c>
+      <c r="V35" s="44">
+        <v>1.83</v>
+      </c>
+      <c r="W35" s="29">
+        <v>2.66</v>
+      </c>
+      <c r="X35" s="29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y35" s="29">
+        <v>1.36</v>
+      </c>
+      <c r="Z35" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="AA35" s="44">
         <v>11</v>
       </c>
-      <c r="W3" s="46">
-        <v>1.33</v>
-      </c>
-      <c r="X3" s="46">
-        <v>5.25</v>
-      </c>
-      <c r="Y3" s="45">
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="44">
+        <v>35</v>
+      </c>
+      <c r="B36" s="44">
+        <v>1669748400</v>
+      </c>
+      <c r="C36" s="44">
+        <v>10230536</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="29">
+        <v>28</v>
+      </c>
+      <c r="F36" s="44">
+        <v>0</v>
+      </c>
+      <c r="G36" s="44">
+        <v>0</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="44">
+        <v>37</v>
+      </c>
+      <c r="J36" s="44">
+        <v>0</v>
+      </c>
+      <c r="K36" s="44">
+        <v>0</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M36" s="44">
+        <v>3</v>
+      </c>
+      <c r="N36" s="29">
+        <v>0</v>
+      </c>
+      <c r="O36" s="29">
+        <v>0</v>
+      </c>
+      <c r="P36" s="44">
+        <v>1.49</v>
+      </c>
+      <c r="Q36" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R36" s="44">
+        <v>2.7</v>
+      </c>
+      <c r="S36" s="29">
+        <v>1.99</v>
+      </c>
+      <c r="T36" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U36" s="44">
+        <v>1.92</v>
+      </c>
+      <c r="V36" s="44">
+        <v>4</v>
+      </c>
+      <c r="W36" s="29">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="X36" s="29">
+        <v>2.81</v>
+      </c>
+      <c r="Y36" s="29">
+        <v>3.61</v>
+      </c>
+      <c r="Z36" s="29">
+        <v>3.55</v>
+      </c>
+      <c r="AA36" s="44">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="44">
+        <v>36</v>
+      </c>
+      <c r="B37" s="44">
+        <v>1669748400</v>
+      </c>
+      <c r="C37" s="44">
+        <v>10230532</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="29">
+        <v>7350</v>
+      </c>
+      <c r="F37" s="44">
+        <v>0</v>
+      </c>
+      <c r="G37" s="44">
+        <v>0</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" s="44">
+        <v>16</v>
+      </c>
+      <c r="J37" s="44">
+        <v>0</v>
+      </c>
+      <c r="K37" s="44">
+        <v>0</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M37" s="44">
+        <v>3</v>
+      </c>
+      <c r="N37" s="29">
+        <v>0</v>
+      </c>
+      <c r="O37" s="29">
+        <v>0</v>
+      </c>
+      <c r="P37" s="44">
+        <v>1.4</v>
+      </c>
+      <c r="Q37" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R37" s="44">
+        <v>3</v>
+      </c>
+      <c r="S37" s="29">
+        <v>2.16</v>
+      </c>
+      <c r="T37" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U37" s="44">
+        <v>1.9</v>
+      </c>
+      <c r="V37" s="44">
+        <v>6.35</v>
+      </c>
+      <c r="W37" s="29">
+        <v>2.34</v>
+      </c>
+      <c r="X37" s="29">
+        <v>2.15</v>
+      </c>
+      <c r="Y37" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="Z37" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="AA37" s="44">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="44">
+        <v>37</v>
+      </c>
+      <c r="B38" s="44">
+        <v>1669820400</v>
+      </c>
+      <c r="C38" s="44">
+        <v>10230560</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="29">
+        <v>11</v>
+      </c>
+      <c r="F38" s="44">
+        <v>0</v>
+      </c>
+      <c r="G38" s="44">
+        <v>0</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" s="29">
+        <v>50</v>
+      </c>
+      <c r="J38" s="44">
+        <v>0</v>
+      </c>
+      <c r="K38" s="44">
+        <v>0</v>
+      </c>
+      <c r="L38" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M38" s="44">
+        <v>3</v>
+      </c>
+      <c r="N38" s="29">
+        <v>0</v>
+      </c>
+      <c r="O38" s="29">
+        <v>0</v>
+      </c>
+      <c r="P38" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="Q38" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R38" s="44">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="S38" s="29">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="T38" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U38" s="44">
+        <v>1.67</v>
+      </c>
+      <c r="V38" s="44">
+        <v>7.2</v>
+      </c>
+      <c r="W38" s="29">
+        <v>2.15</v>
+      </c>
+      <c r="X38" s="29">
+        <v>2.31</v>
+      </c>
+      <c r="Y38" s="29">
+        <v>6.9</v>
+      </c>
+      <c r="Z38" s="29">
+        <v>3.91</v>
+      </c>
+      <c r="AA38" s="44">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="44">
+        <v>38</v>
+      </c>
+      <c r="B39" s="44">
+        <v>1669820400</v>
+      </c>
+      <c r="C39" s="44">
+        <v>10230555</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="29">
+        <v>56</v>
+      </c>
+      <c r="F39" s="44">
+        <v>0</v>
+      </c>
+      <c r="G39" s="44">
+        <v>0</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="29">
+        <v>22</v>
+      </c>
+      <c r="J39" s="44">
+        <v>0</v>
+      </c>
+      <c r="K39" s="44">
+        <v>0</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="M39" s="44">
+        <v>3</v>
+      </c>
+      <c r="N39" s="29">
+        <v>0</v>
+      </c>
+      <c r="O39" s="29">
+        <v>0</v>
+      </c>
+      <c r="P39" s="44">
+        <v>2.85</v>
+      </c>
+      <c r="Q39" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="R39" s="44">
+        <v>1.45</v>
+      </c>
+      <c r="S39" s="29">
+        <v>1.97</v>
+      </c>
+      <c r="T39" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U39" s="44">
+        <v>1.98</v>
+      </c>
+      <c r="V39" s="44">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45">
+      <c r="W39" s="29">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="X39" s="29">
+        <v>1.73</v>
+      </c>
+      <c r="Y39" s="29">
+        <v>16</v>
+      </c>
+      <c r="Z39" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="AA39" s="44">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="44">
+        <v>39</v>
+      </c>
+      <c r="B40" s="44">
+        <v>1669834800</v>
+      </c>
+      <c r="C40" s="44">
+        <v>10230547</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="29">
+        <v>7463</v>
+      </c>
+      <c r="F40" s="44">
+        <v>0</v>
+      </c>
+      <c r="G40" s="44">
+        <v>0</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="29">
+        <v>24</v>
+      </c>
+      <c r="J40" s="44">
+        <v>0</v>
+      </c>
+      <c r="K40" s="44">
+        <v>0</v>
+      </c>
+      <c r="L40" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M40" s="44">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
-        <v>1669046400</v>
-      </c>
-      <c r="C4" s="45">
-        <v>10230533</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="45">
-        <v>0</v>
-      </c>
-      <c r="F4" s="45">
-        <v>0</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="45">
-        <v>0</v>
-      </c>
-      <c r="I4" s="45">
-        <v>0</v>
-      </c>
-      <c r="J4" s="46" t="s">
+      <c r="N40" s="29">
+        <v>0</v>
+      </c>
+      <c r="O40" s="29">
+        <v>0</v>
+      </c>
+      <c r="P40" s="44">
+        <v>1.41</v>
+      </c>
+      <c r="Q40" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R40" s="44">
+        <v>2.48</v>
+      </c>
+      <c r="S40" s="29">
+        <v>1.99</v>
+      </c>
+      <c r="T40" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U40" s="44">
+        <v>1.92</v>
+      </c>
+      <c r="V40" s="44">
+        <v>5.5</v>
+      </c>
+      <c r="W40" s="29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X40" s="29">
+        <v>2.27</v>
+      </c>
+      <c r="Y40" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="Z40" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="AA40" s="44">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="44">
+        <v>40</v>
+      </c>
+      <c r="B41" s="44">
+        <v>1669834800</v>
+      </c>
+      <c r="C41" s="44">
+        <v>10230546</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="29">
+        <v>1489</v>
+      </c>
+      <c r="F41" s="44">
+        <v>0</v>
+      </c>
+      <c r="G41" s="44">
+        <v>0</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="29">
+        <v>6</v>
+      </c>
+      <c r="J41" s="44">
+        <v>0</v>
+      </c>
+      <c r="K41" s="44">
+        <v>0</v>
+      </c>
+      <c r="L41" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="M41" s="44">
+        <v>3</v>
+      </c>
+      <c r="N41" s="29">
+        <v>0</v>
+      </c>
+      <c r="O41" s="29">
+        <v>0</v>
+      </c>
+      <c r="P41" s="44">
+        <v>1.45</v>
+      </c>
+      <c r="Q41" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R41" s="44">
+        <v>2.97</v>
+      </c>
+      <c r="S41" s="29">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="T41" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U41" s="44">
+        <v>1.92</v>
+      </c>
+      <c r="V41" s="44">
+        <v>6.95</v>
+      </c>
+      <c r="W41" s="29">
+        <v>2.31</v>
+      </c>
+      <c r="X41" s="29">
+        <v>2.15</v>
+      </c>
+      <c r="Y41" s="29">
+        <v>6.9</v>
+      </c>
+      <c r="Z41" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="AA41" s="44">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="44">
+        <v>41</v>
+      </c>
+      <c r="B42" s="44">
+        <v>1669906800</v>
+      </c>
+      <c r="C42" s="44">
+        <v>10230531</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="29">
+        <v>45</v>
+      </c>
+      <c r="F42" s="44">
+        <v>0</v>
+      </c>
+      <c r="G42" s="44">
+        <v>0</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="29">
+        <v>1451</v>
+      </c>
+      <c r="J42" s="44">
+        <v>0</v>
+      </c>
+      <c r="K42" s="44">
+        <v>0</v>
+      </c>
+      <c r="L42" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="45">
-        <v>1</v>
-      </c>
-      <c r="L4" s="46">
-        <v>0</v>
-      </c>
-      <c r="M4" s="46">
-        <v>0</v>
-      </c>
-      <c r="N4" s="46">
-        <v>2.06</v>
-      </c>
-      <c r="O4" s="45">
-        <v>1</v>
-      </c>
-      <c r="P4" s="46">
-        <v>1.85</v>
-      </c>
-      <c r="Q4" s="46">
-        <v>1.85</v>
-      </c>
-      <c r="R4" s="46">
+      <c r="M42" s="44">
+        <v>3</v>
+      </c>
+      <c r="N42" s="29">
+        <v>0</v>
+      </c>
+      <c r="O42" s="29">
+        <v>0</v>
+      </c>
+      <c r="P42" s="44">
+        <v>1.52</v>
+      </c>
+      <c r="Q42" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="R42" s="44">
+        <v>1.74</v>
+      </c>
+      <c r="S42" s="29">
+        <v>2.25</v>
+      </c>
+      <c r="T42" s="44">
         <v>2.5</v>
       </c>
-      <c r="S4" s="46">
-        <v>2.09</v>
-      </c>
-      <c r="T4" s="46">
-        <v>6.03</v>
-      </c>
-      <c r="U4" s="46">
+      <c r="U42" s="44">
+        <v>1.72</v>
+      </c>
+      <c r="V42" s="44">
+        <v>4</v>
+      </c>
+      <c r="W42" s="29">
+        <v>2.12</v>
+      </c>
+      <c r="X42" s="29">
+        <v>3.08</v>
+      </c>
+      <c r="Y42" s="29">
+        <v>3.35</v>
+      </c>
+      <c r="Z42" s="29">
+        <v>3.55</v>
+      </c>
+      <c r="AA42" s="44">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="44">
+        <v>42</v>
+      </c>
+      <c r="B43" s="44">
+        <v>1669906800</v>
+      </c>
+      <c r="C43" s="44">
+        <v>10230535</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="29">
+        <v>5</v>
+      </c>
+      <c r="F43" s="44">
+        <v>0</v>
+      </c>
+      <c r="G43" s="44">
+        <v>0</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" s="29">
+        <v>32</v>
+      </c>
+      <c r="J43" s="44">
+        <v>0</v>
+      </c>
+      <c r="K43" s="44">
+        <v>0</v>
+      </c>
+      <c r="L43" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M43" s="44">
+        <v>3</v>
+      </c>
+      <c r="N43" s="29">
+        <v>0</v>
+      </c>
+      <c r="O43" s="29">
+        <v>0</v>
+      </c>
+      <c r="P43" s="44">
+        <v>1.41</v>
+      </c>
+      <c r="Q43" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R43" s="44">
+        <v>3</v>
+      </c>
+      <c r="S43" s="29">
+        <v>2.04</v>
+      </c>
+      <c r="T43" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U43" s="44">
+        <v>1.94</v>
+      </c>
+      <c r="V43" s="44">
+        <v>4.5</v>
+      </c>
+      <c r="W43" s="29">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="X43" s="29">
+        <v>2.62</v>
+      </c>
+      <c r="Y43" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="Z43" s="29">
+        <v>3.88</v>
+      </c>
+      <c r="AA43" s="44">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="44">
+        <v>1669921200</v>
+      </c>
+      <c r="C44" s="44">
+        <v>10230573</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="29">
+        <v>15</v>
+      </c>
+      <c r="F44" s="44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" s="29">
+        <v>26</v>
+      </c>
+      <c r="J44" s="44">
+        <v>0</v>
+      </c>
+      <c r="K44" s="44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="M44" s="44">
+        <v>3</v>
+      </c>
+      <c r="N44" s="29">
+        <v>0</v>
+      </c>
+      <c r="O44" s="29">
+        <v>0</v>
+      </c>
+      <c r="P44" s="44">
+        <v>1.67</v>
+      </c>
+      <c r="Q44" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R44" s="44">
         <v>2.25</v>
       </c>
-      <c r="V4" s="46">
+      <c r="S44" s="29">
+        <v>1.73</v>
+      </c>
+      <c r="T44" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U44" s="44">
+        <v>2.29</v>
+      </c>
+      <c r="V44" s="44">
+        <v>9.4</v>
+      </c>
+      <c r="W44" s="29">
+        <v>2.65</v>
+      </c>
+      <c r="X44" s="29">
+        <v>1.75</v>
+      </c>
+      <c r="Y44" s="29">
+        <v>14</v>
+      </c>
+      <c r="Z44" s="29">
+        <v>6</v>
+      </c>
+      <c r="AA44" s="44">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="44">
+        <v>44</v>
+      </c>
+      <c r="B45" s="44">
+        <v>1669921200</v>
+      </c>
+      <c r="C45" s="44">
+        <v>10230554</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="29">
+        <v>19</v>
+      </c>
+      <c r="F45" s="44">
+        <v>0</v>
+      </c>
+      <c r="G45" s="44">
+        <v>0</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I45" s="29">
+        <v>8</v>
+      </c>
+      <c r="J45" s="44">
+        <v>0</v>
+      </c>
+      <c r="K45" s="44">
+        <v>0</v>
+      </c>
+      <c r="L45" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="M45" s="44">
+        <v>3</v>
+      </c>
+      <c r="N45" s="29">
+        <v>0</v>
+      </c>
+      <c r="O45" s="29">
+        <v>0</v>
+      </c>
+      <c r="P45" s="44">
+        <v>2.67</v>
+      </c>
+      <c r="Q45" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="R45" s="44">
+        <v>1.53</v>
+      </c>
+      <c r="S45" s="29">
+        <v>2.98</v>
+      </c>
+      <c r="T45" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="U45" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="V45" s="44">
+        <v>8.5</v>
+      </c>
+      <c r="W45" s="29">
+        <v>2.72</v>
+      </c>
+      <c r="X45" s="29">
+        <v>1.78</v>
+      </c>
+      <c r="Y45" s="29">
+        <v>12</v>
+      </c>
+      <c r="Z45" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="AA45" s="44">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="44">
+        <v>45</v>
+      </c>
+      <c r="B46" s="44">
+        <v>1669993200</v>
+      </c>
+      <c r="C46" s="44">
+        <v>10230549</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="29">
+        <v>30</v>
+      </c>
+      <c r="F46" s="44">
+        <v>0</v>
+      </c>
+      <c r="G46" s="44">
+        <v>0</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" s="29">
+        <v>14</v>
+      </c>
+      <c r="J46" s="44">
+        <v>0</v>
+      </c>
+      <c r="K46" s="44">
+        <v>0</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" s="44">
+        <v>3</v>
+      </c>
+      <c r="N46" s="29">
+        <v>0</v>
+      </c>
+      <c r="O46" s="29">
+        <v>0</v>
+      </c>
+      <c r="P46" s="44">
+        <v>1.49</v>
+      </c>
+      <c r="Q46" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R46" s="44">
+        <v>2.7</v>
+      </c>
+      <c r="S46" s="29">
+        <v>2.17</v>
+      </c>
+      <c r="T46" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U46" s="44">
+        <v>1.83</v>
+      </c>
+      <c r="V46" s="44">
+        <v>5.55</v>
+      </c>
+      <c r="W46" s="29">
+        <v>2.25</v>
+      </c>
+      <c r="X46" s="29">
+        <v>2.42</v>
+      </c>
+      <c r="Y46" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="Z46" s="29">
+        <v>3.8</v>
+      </c>
+      <c r="AA46" s="44">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="44">
+        <v>46</v>
+      </c>
+      <c r="B47" s="44">
+        <v>1669993200</v>
+      </c>
+      <c r="C47" s="44">
+        <v>10230544</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="29">
+        <v>35</v>
+      </c>
+      <c r="F47" s="44">
+        <v>0</v>
+      </c>
+      <c r="G47" s="44">
+        <v>0</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47" s="29">
+        <v>27</v>
+      </c>
+      <c r="J47" s="44">
+        <v>0</v>
+      </c>
+      <c r="K47" s="44">
+        <v>0</v>
+      </c>
+      <c r="L47" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="M47" s="44">
+        <v>3</v>
+      </c>
+      <c r="N47" s="29">
+        <v>0</v>
+      </c>
+      <c r="O47" s="29">
+        <v>0</v>
+      </c>
+      <c r="P47" s="44">
+        <v>2.88</v>
+      </c>
+      <c r="Q47" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="R47" s="44">
+        <v>1.45</v>
+      </c>
+      <c r="S47" s="29">
+        <v>1.98</v>
+      </c>
+      <c r="T47" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U47" s="44">
+        <v>1.95</v>
+      </c>
+      <c r="V47" s="44">
+        <v>10</v>
+      </c>
+      <c r="W47" s="29">
+        <v>2.46</v>
+      </c>
+      <c r="X47" s="29">
+        <v>1.89</v>
+      </c>
+      <c r="Y47" s="29">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Z47" s="29">
+        <v>5.4</v>
+      </c>
+      <c r="AA47" s="44">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="44">
+        <v>47</v>
+      </c>
+      <c r="B48" s="44">
+        <v>1670007600</v>
+      </c>
+      <c r="C48" s="44">
+        <v>10230553</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="29">
+        <v>7</v>
+      </c>
+      <c r="F48" s="44">
+        <v>0</v>
+      </c>
+      <c r="G48" s="44">
+        <v>0</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48" s="29">
+        <v>4</v>
+      </c>
+      <c r="J48" s="44">
+        <v>0</v>
+      </c>
+      <c r="K48" s="44">
+        <v>0</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="M48" s="44">
+        <v>3</v>
+      </c>
+      <c r="N48" s="29">
+        <v>0</v>
+      </c>
+      <c r="O48" s="29">
+        <v>0</v>
+      </c>
+      <c r="P48" s="44">
+        <v>2.6</v>
+      </c>
+      <c r="Q48" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="R48" s="44">
+        <v>1.53</v>
+      </c>
+      <c r="S48" s="29">
+        <v>1.78</v>
+      </c>
+      <c r="T48" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U48" s="44">
         <v>2.3199999999999998</v>
       </c>
-      <c r="W4" s="46">
-        <v>6.2</v>
-      </c>
-      <c r="X4" s="46">
-        <v>3.92</v>
-      </c>
-      <c r="Y4" s="46">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="45">
-        <v>4</v>
-      </c>
-      <c r="B5" s="45">
-        <v>1669057200</v>
-      </c>
-      <c r="C5" s="45">
-        <v>10230548</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="45">
-        <v>0</v>
-      </c>
-      <c r="F5" s="45">
-        <v>0</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="45">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45">
-        <v>0</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="45">
-        <v>1</v>
-      </c>
-      <c r="L5" s="46">
-        <v>0</v>
-      </c>
-      <c r="M5" s="46">
-        <v>0</v>
-      </c>
-      <c r="N5" s="46">
-        <v>1.88</v>
-      </c>
-      <c r="O5" s="45">
-        <v>1</v>
-      </c>
-      <c r="P5" s="46">
-        <v>2.11</v>
-      </c>
-      <c r="Q5" s="46">
-        <v>1.9</v>
-      </c>
-      <c r="R5" s="45">
-        <v>2</v>
-      </c>
-      <c r="S5" s="46">
-        <v>2.1</v>
-      </c>
-      <c r="T5" s="46">
-        <v>3.32</v>
-      </c>
-      <c r="U5" s="46">
-        <v>2.06</v>
-      </c>
-      <c r="V5" s="45">
-        <v>4</v>
-      </c>
-      <c r="W5" s="46">
-        <v>2.54</v>
-      </c>
-      <c r="X5" s="46">
-        <v>3.24</v>
-      </c>
-      <c r="Y5" s="46">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="45">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45">
-        <v>1669111200</v>
-      </c>
-      <c r="C6" s="45">
-        <v>10230528</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="45">
-        <v>0</v>
-      </c>
-      <c r="F6" s="45">
-        <v>0</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="45">
-        <v>0</v>
-      </c>
-      <c r="I6" s="45">
-        <v>0</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="K6" s="45">
-        <v>1</v>
-      </c>
-      <c r="L6" s="46">
-        <v>0</v>
-      </c>
-      <c r="M6" s="46">
-        <v>0</v>
-      </c>
-      <c r="N6" s="46">
-        <v>2.21</v>
-      </c>
-      <c r="O6" s="46">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="46">
-        <v>1.75</v>
-      </c>
-      <c r="Q6" s="46">
-        <v>1.94</v>
-      </c>
-      <c r="R6" s="45">
+      <c r="V48" s="44">
+        <v>8.9</v>
+      </c>
+      <c r="W48" s="29">
+        <v>2.65</v>
+      </c>
+      <c r="X48" s="29">
+        <v>1.84</v>
+      </c>
+      <c r="Y48" s="29">
+        <v>12</v>
+      </c>
+      <c r="Z48" s="29">
+        <v>5.55</v>
+      </c>
+      <c r="AA48" s="44">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="44">
+        <v>48</v>
+      </c>
+      <c r="B49" s="44">
+        <v>1670007600</v>
+      </c>
+      <c r="C49" s="44">
+        <v>10230558</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="29">
+        <v>955</v>
+      </c>
+      <c r="F49" s="44">
+        <v>0</v>
+      </c>
+      <c r="G49" s="44">
+        <v>0</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I49" s="29">
+        <v>20</v>
+      </c>
+      <c r="J49" s="44">
+        <v>0</v>
+      </c>
+      <c r="K49" s="44">
+        <v>0</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="M49" s="44">
         <v>3</v>
       </c>
-      <c r="S6" s="45">
-        <v>2</v>
-      </c>
-      <c r="T6" s="46">
-        <v>1.65</v>
-      </c>
-      <c r="U6" s="46">
+      <c r="N49" s="29">
+        <v>0</v>
+      </c>
+      <c r="O49" s="29">
+        <v>0</v>
+      </c>
+      <c r="P49" s="44">
+        <v>1.48</v>
+      </c>
+      <c r="Q49" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="R49" s="44">
+        <v>2.75</v>
+      </c>
+      <c r="S49" s="29">
+        <v>2.04</v>
+      </c>
+      <c r="T49" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="U49" s="44">
+        <v>1.92</v>
+      </c>
+      <c r="V49" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="W49" s="29">
+        <v>2.25</v>
+      </c>
+      <c r="X49" s="29">
+        <v>3.18</v>
+      </c>
+      <c r="Y49" s="29">
         <v>2.87</v>
       </c>
-      <c r="V6" s="46">
-        <v>13.12</v>
-      </c>
-      <c r="W6" s="46">
-        <v>1.2</v>
-      </c>
-      <c r="X6" s="46">
-        <v>8.1</v>
-      </c>
-      <c r="Y6" s="45">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="45">
-        <v>6</v>
-      </c>
-      <c r="B7" s="45">
-        <v>1669122000</v>
-      </c>
-      <c r="C7" s="45">
-        <v>10230576</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0</v>
-      </c>
-      <c r="F7" s="45">
-        <v>0</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="45">
-        <v>0</v>
-      </c>
-      <c r="I7" s="45">
-        <v>0</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="45">
-        <v>1</v>
-      </c>
-      <c r="L7" s="46">
-        <v>0</v>
-      </c>
-      <c r="M7" s="46">
-        <v>0</v>
-      </c>
-      <c r="N7" s="46">
-        <v>2.14</v>
-      </c>
-      <c r="O7" s="46">
-        <v>1</v>
-      </c>
-      <c r="P7" s="46">
-        <v>1.83</v>
-      </c>
-      <c r="Q7" s="46">
-        <v>1.9</v>
-      </c>
-      <c r="R7" s="46">
+      <c r="Z49" s="29">
         <v>2.5</v>
       </c>
-      <c r="S7" s="45">
-        <v>2.1</v>
-      </c>
-      <c r="T7" s="46">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U7" s="46">
-        <v>2.34</v>
-      </c>
-      <c r="V7" s="46">
-        <v>7.76</v>
-      </c>
-      <c r="W7" s="46">
-        <v>1.48</v>
-      </c>
-      <c r="X7" s="46">
-        <v>4.7</v>
-      </c>
-      <c r="Y7" s="45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="45">
-        <v>7</v>
-      </c>
-      <c r="B8" s="45">
-        <v>1669132800</v>
-      </c>
-      <c r="C8" s="45">
-        <v>10230565</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="45">
-        <v>0</v>
-      </c>
-      <c r="F8" s="45">
-        <v>0</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0</v>
-      </c>
-      <c r="I8" s="45">
-        <v>0</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="45">
-        <v>1</v>
-      </c>
-      <c r="L8" s="46">
-        <v>0</v>
-      </c>
-      <c r="M8" s="46">
-        <v>0</v>
-      </c>
-      <c r="N8" s="46">
-        <v>1.78</v>
-      </c>
-      <c r="O8" s="46">
-        <v>1</v>
-      </c>
-      <c r="P8" s="46">
-        <v>2.16</v>
-      </c>
-      <c r="Q8" s="46">
-        <v>1.06</v>
-      </c>
-      <c r="R8" s="46">
-        <v>2.5</v>
-      </c>
-      <c r="S8" s="45">
-        <v>1.87</v>
-      </c>
-      <c r="T8" s="46">
-        <v>3.64</v>
-      </c>
-      <c r="U8" s="46">
-        <v>2.08</v>
-      </c>
-      <c r="V8" s="46">
-        <v>3.51</v>
-      </c>
-      <c r="W8" s="46">
-        <v>2.83</v>
-      </c>
-      <c r="X8" s="46">
-        <v>3.19</v>
-      </c>
-      <c r="Y8" s="46">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="45">
-        <v>8</v>
-      </c>
-      <c r="B9" s="45">
-        <v>1669143600</v>
-      </c>
-      <c r="C9" s="45">
-        <v>10230563</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="45">
-        <v>0</v>
-      </c>
-      <c r="F9" s="45">
-        <v>0</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0</v>
-      </c>
-      <c r="I9" s="45">
-        <v>0</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" s="45">
-        <v>1</v>
-      </c>
-      <c r="L9" s="46">
-        <v>0</v>
-      </c>
-      <c r="M9" s="46">
-        <v>0</v>
-      </c>
-      <c r="N9" s="46">
-        <v>2.14</v>
-      </c>
-      <c r="O9" s="46">
-        <v>1.5</v>
-      </c>
-      <c r="P9" s="46">
-        <v>1.85</v>
-      </c>
-      <c r="Q9" s="46">
-        <v>1.88</v>
-      </c>
-      <c r="R9" s="45">
-        <v>3</v>
-      </c>
-      <c r="S9" s="45">
-        <v>2.04</v>
-      </c>
-      <c r="T9" s="46">
-        <v>1.72</v>
-      </c>
-      <c r="U9" s="46">
-        <v>2.98</v>
-      </c>
-      <c r="V9" s="46">
-        <v>9.5</v>
-      </c>
-      <c r="W9" s="46">
-        <v>1.28</v>
-      </c>
-      <c r="X9" s="46">
-        <v>6.7</v>
-      </c>
-      <c r="Y9" s="45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="43"/>
+      <c r="AA49" s="44">
+        <v>2.61</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BE3B438B-38A7-4CD8-8BE7-9E446A9B2CDC}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="D1:D2497" xr:uid="{0AB119FC-3892-AC42-8F6E-3BB3D772F1E5}">
+        <filterColumn colId="0">
+          <filters>
+            <filter val="bundle boxes"/>
+            <filter val="Mystery Box"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
     <customSheetView guid="{EE2F20B3-2CAB-4FD8-97BE-93C792EE71D7}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:I1934" xr:uid="{B2141296-918F-B64F-AD7A-EC7AFFBA4D94}">
+      <autoFilter ref="B1:I1934" xr:uid="{6A790438-1EB6-384C-BB01-5B2EAE2D82BF}">
         <filterColumn colId="0">
           <filters>
             <filter val="Beta Test Phase 1"/>
             <filter val="KOLs"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{BE3B438B-38A7-4CD8-8BE7-9E446A9B2CDC}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="D1:D2497" xr:uid="{D3ED11C1-D9F3-7A4A-9751-2CBB4E603FF6}">
-        <filterColumn colId="0">
-          <filters>
-            <filter val="bundle boxes"/>
-            <filter val="Mystery Box"/>
           </filters>
         </filterColumn>
       </autoFilter>
@@ -1810,65 +5231,65 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="42" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
       <c r="K8" s="7">
         <v>20</v>
       </c>
@@ -1900,7 +5321,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1934,7 +5355,7 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="D11" s="33"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1958,7 +5379,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="D12" s="33"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1984,7 +5405,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="D13" s="33"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
@@ -2012,7 +5433,7 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="9" t="s">
         <v>1</v>
       </c>
@@ -2039,7 +5460,7 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="D15" s="33"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="9" t="s">
         <v>1</v>
       </c>
@@ -2066,7 +5487,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="D16" s="33"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="9" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +5514,7 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="D17" s="33"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="9" t="s">
         <v>1</v>
       </c>
@@ -2126,7 +5547,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="41" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="13" t="s">
@@ -2151,7 +5572,7 @@
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="33"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="13" t="s">
         <v>13</v>
       </c>
@@ -2174,7 +5595,7 @@
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="33"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2197,7 +5618,7 @@
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="33"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="20" t="s">
         <v>1</v>
       </c>
@@ -11736,12 +15157,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="D10:D17"/>
@@ -11749,6 +15164,12 @@
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/add-matchs-tool/data/round_table_matchs.xlsx
+++ b/add-matchs-tool/data/round_table_matchs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenkhoa/Desktop/firebird/testnet-minigame/add-matchs-tool/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenkhoa/Desktop/firebird/add-matchs-tool/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BB4931-0BE1-654E-8DC9-DB3D8E0018FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365393D8-B2A1-3745-96FF-C19FD6E461DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{EE2F20B3-2CAB-4FD8-97BE-93C792EE71D7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{4A9AD0B4-5107-4E09-AD2C-D56699159281}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{BE3B438B-38A7-4CD8-8BE7-9E446A9B2CDC}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{4A9AD0B4-5107-4E09-AD2C-D56699159281}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{EE2F20B3-2CAB-4FD8-97BE-93C792EE71D7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="123">
   <si>
     <t>Type</t>
   </si>
@@ -410,60 +410,6 @@
   </si>
   <si>
     <t>Al Janoub Stadium</t>
-  </si>
-  <si>
-    <t>home_icon</t>
-  </si>
-  <si>
-    <t>away_icon</t>
-  </si>
-  <si>
-    <t>MOROCCO</t>
-  </si>
-  <si>
-    <t>CROATIA</t>
-  </si>
-  <si>
-    <t>GERMANY</t>
-  </si>
-  <si>
-    <t>JAPAN</t>
-  </si>
-  <si>
-    <t>SPAIN</t>
-  </si>
-  <si>
-    <t>COSTA RICA</t>
-  </si>
-  <si>
-    <t>BELGIUM</t>
-  </si>
-  <si>
-    <t>CANADA</t>
-  </si>
-  <si>
-    <t>SWITZERLAND</t>
-  </si>
-  <si>
-    <t>CAMEROON</t>
-  </si>
-  <si>
-    <t>URUGUAY</t>
-  </si>
-  <si>
-    <t>SOUTH KOREA</t>
-  </si>
-  <si>
-    <t>PORTUGAL</t>
-  </si>
-  <si>
-    <t>GHANA</t>
-  </si>
-  <si>
-    <t>BRAZIL</t>
-  </si>
-  <si>
-    <t>SERBIA</t>
   </si>
 </sst>
 </file>
@@ -576,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -696,6 +642,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -714,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -781,31 +736,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -817,10 +753,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,4112 +996,735 @@
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="12.6640625" style="45"/>
-    <col min="4" max="4" width="23.5" style="45" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" style="45"/>
-    <col min="8" max="8" width="19.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.6640625" style="45"/>
-    <col min="12" max="12" width="23.83203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="12.6640625" style="45"/>
+    <col min="3" max="3" width="12.6640625" style="28"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:25" s="44" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="G1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="I1" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="J1" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="K1" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="M1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="N1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="O1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="P1" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="R1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="S1" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="T1" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="U1" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="V1" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="W1" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="X1" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="Y1" s="44" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44">
+    <row r="2" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="45">
         <v>1668960000</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="45">
         <v>10230541</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="44">
-        <v>7643</v>
-      </c>
-      <c r="F2" s="44">
+      <c r="E2" s="45">
         <v>0</v>
       </c>
-      <c r="G2" s="44">
+      <c r="F2" s="45">
         <v>0</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="44">
-        <v>21</v>
-      </c>
-      <c r="J2" s="44">
+      <c r="H2" s="45">
         <v>0</v>
       </c>
-      <c r="K2" s="44">
+      <c r="I2" s="45">
         <v>0</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="29">
+      <c r="K2" s="46">
         <v>1</v>
       </c>
-      <c r="N2" s="29">
+      <c r="L2" s="46">
         <v>0</v>
       </c>
-      <c r="O2" s="29">
+      <c r="M2" s="46">
         <v>0</v>
       </c>
-      <c r="P2" s="29">
+      <c r="N2" s="46">
         <v>1.74</v>
       </c>
-      <c r="Q2" s="29">
+      <c r="O2" s="46">
         <v>0.5</v>
       </c>
-      <c r="R2" s="29">
+      <c r="P2" s="46">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S2" s="29">
+      <c r="Q2" s="46">
         <v>1.99</v>
       </c>
-      <c r="T2" s="29">
+      <c r="R2" s="46">
         <v>2.5</v>
       </c>
-      <c r="U2" s="29">
+      <c r="S2" s="46">
         <v>1.95</v>
       </c>
-      <c r="V2" s="29">
+      <c r="T2" s="46">
         <v>5.45</v>
       </c>
-      <c r="W2" s="29">
+      <c r="U2" s="46">
         <v>2.1</v>
       </c>
-      <c r="X2" s="29">
+      <c r="V2" s="46">
         <v>2.94</v>
       </c>
-      <c r="Y2" s="29">
+      <c r="W2" s="46">
         <v>3.82</v>
       </c>
-      <c r="Z2" s="29">
+      <c r="X2" s="46">
         <v>3.48</v>
       </c>
-      <c r="AA2" s="29">
+      <c r="Y2" s="46">
         <v>2.25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44">
+    <row r="3" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="45">
         <v>2</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="45">
         <v>1669035600</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="45">
         <v>10230543</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="44">
-        <v>16</v>
-      </c>
-      <c r="F3" s="44">
+      <c r="E3" s="45">
         <v>0</v>
       </c>
-      <c r="G3" s="44">
+      <c r="F3" s="45">
         <v>0</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="44">
-        <v>28</v>
-      </c>
-      <c r="J3" s="44">
+      <c r="H3" s="45">
         <v>0</v>
       </c>
-      <c r="K3" s="44">
+      <c r="I3" s="45">
         <v>0</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="J3" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="M3" s="44">
+      <c r="K3" s="45">
         <v>1</v>
       </c>
-      <c r="N3" s="29">
+      <c r="L3" s="46">
         <v>0</v>
       </c>
-      <c r="O3" s="29">
+      <c r="M3" s="46">
         <v>0</v>
       </c>
-      <c r="P3" s="29">
-        <v>1.56</v>
-      </c>
-      <c r="Q3" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R3" s="29">
-        <v>2.7</v>
-      </c>
-      <c r="S3" s="29">
+      <c r="N3" s="46">
+        <v>2.12</v>
+      </c>
+      <c r="O3" s="45">
+        <v>1</v>
+      </c>
+      <c r="P3" s="46">
+        <v>1.86</v>
+      </c>
+      <c r="Q3" s="46">
         <v>2.09</v>
       </c>
-      <c r="T3" s="29">
+      <c r="R3" s="46">
         <v>2.5</v>
       </c>
-      <c r="U3" s="29">
+      <c r="S3" s="46">
         <v>1.86</v>
       </c>
-      <c r="V3" s="29">
+      <c r="T3" s="46">
         <v>1.93</v>
       </c>
-      <c r="W3" s="29">
+      <c r="U3" s="46">
         <v>2.4</v>
       </c>
-      <c r="X3" s="44">
+      <c r="V3" s="45">
         <v>11</v>
       </c>
-      <c r="Y3" s="29">
+      <c r="W3" s="46">
         <v>1.33</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="X3" s="46">
         <v>5.25</v>
       </c>
-      <c r="AA3" s="44">
+      <c r="Y3" s="45">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44">
+    <row r="4" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="45">
         <v>3</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="45">
         <v>1669046400</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="45">
         <v>10230533</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="44">
-        <v>1043</v>
-      </c>
-      <c r="F4" s="44">
+      <c r="E4" s="45">
         <v>0</v>
       </c>
-      <c r="G4" s="44">
+      <c r="F4" s="45">
         <v>0</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="44">
-        <v>36</v>
-      </c>
-      <c r="J4" s="44">
+      <c r="H4" s="45">
         <v>0</v>
       </c>
-      <c r="K4" s="44">
+      <c r="I4" s="45">
         <v>0</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="J4" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="44">
+      <c r="K4" s="45">
         <v>1</v>
       </c>
-      <c r="N4" s="29">
+      <c r="L4" s="46">
         <v>0</v>
       </c>
-      <c r="O4" s="29">
+      <c r="M4" s="46">
         <v>0</v>
       </c>
-      <c r="P4" s="29">
+      <c r="N4" s="46">
+        <v>2.06</v>
+      </c>
+      <c r="O4" s="45">
+        <v>1</v>
+      </c>
+      <c r="P4" s="46">
+        <v>1.85</v>
+      </c>
+      <c r="Q4" s="46">
+        <v>1.85</v>
+      </c>
+      <c r="R4" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="S4" s="46">
+        <v>2.09</v>
+      </c>
+      <c r="T4" s="46">
+        <v>6.03</v>
+      </c>
+      <c r="U4" s="46">
+        <v>2.25</v>
+      </c>
+      <c r="V4" s="46">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="W4" s="46">
+        <v>6.2</v>
+      </c>
+      <c r="X4" s="46">
+        <v>3.92</v>
+      </c>
+      <c r="Y4" s="46">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45">
+        <v>1669057200</v>
+      </c>
+      <c r="C5" s="45">
+        <v>10230548</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="45">
+        <v>0</v>
+      </c>
+      <c r="F5" s="45">
+        <v>0</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="45">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
+        <v>0</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="45">
+        <v>1</v>
+      </c>
+      <c r="L5" s="46">
+        <v>0</v>
+      </c>
+      <c r="M5" s="46">
+        <v>0</v>
+      </c>
+      <c r="N5" s="46">
+        <v>1.88</v>
+      </c>
+      <c r="O5" s="45">
+        <v>1</v>
+      </c>
+      <c r="P5" s="46">
+        <v>2.11</v>
+      </c>
+      <c r="Q5" s="46">
+        <v>1.9</v>
+      </c>
+      <c r="R5" s="45">
+        <v>2</v>
+      </c>
+      <c r="S5" s="46">
+        <v>2.1</v>
+      </c>
+      <c r="T5" s="46">
+        <v>3.32</v>
+      </c>
+      <c r="U5" s="46">
+        <v>2.06</v>
+      </c>
+      <c r="V5" s="45">
+        <v>4</v>
+      </c>
+      <c r="W5" s="46">
+        <v>2.54</v>
+      </c>
+      <c r="X5" s="46">
+        <v>3.24</v>
+      </c>
+      <c r="Y5" s="46">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45">
+        <v>1669111200</v>
+      </c>
+      <c r="C6" s="45">
+        <v>10230528</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="45">
+        <v>1</v>
+      </c>
+      <c r="L6" s="46">
+        <v>0</v>
+      </c>
+      <c r="M6" s="46">
+        <v>0</v>
+      </c>
+      <c r="N6" s="46">
+        <v>2.21</v>
+      </c>
+      <c r="O6" s="46">
         <v>1.5</v>
       </c>
-      <c r="Q4" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="29">
-        <v>2.75</v>
-      </c>
-      <c r="S4" s="29">
+      <c r="P6" s="46">
+        <v>1.75</v>
+      </c>
+      <c r="Q6" s="46">
+        <v>1.94</v>
+      </c>
+      <c r="R6" s="45">
+        <v>3</v>
+      </c>
+      <c r="S6" s="45">
+        <v>2</v>
+      </c>
+      <c r="T6" s="46">
+        <v>1.65</v>
+      </c>
+      <c r="U6" s="46">
+        <v>2.87</v>
+      </c>
+      <c r="V6" s="46">
+        <v>13.12</v>
+      </c>
+      <c r="W6" s="46">
+        <v>1.2</v>
+      </c>
+      <c r="X6" s="46">
+        <v>8.1</v>
+      </c>
+      <c r="Y6" s="45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45">
+        <v>1669122000</v>
+      </c>
+      <c r="C7" s="45">
+        <v>10230576</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="45">
+        <v>0</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="45">
+        <v>1</v>
+      </c>
+      <c r="L7" s="46">
+        <v>0</v>
+      </c>
+      <c r="M7" s="46">
+        <v>0</v>
+      </c>
+      <c r="N7" s="46">
+        <v>2.14</v>
+      </c>
+      <c r="O7" s="46">
+        <v>1</v>
+      </c>
+      <c r="P7" s="46">
+        <v>1.83</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>1.9</v>
+      </c>
+      <c r="R7" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="S7" s="45">
+        <v>2.1</v>
+      </c>
+      <c r="T7" s="46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U7" s="46">
+        <v>2.34</v>
+      </c>
+      <c r="V7" s="46">
+        <v>7.76</v>
+      </c>
+      <c r="W7" s="46">
+        <v>1.48</v>
+      </c>
+      <c r="X7" s="46">
+        <v>4.7</v>
+      </c>
+      <c r="Y7" s="45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="45">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45">
+        <v>1669132800</v>
+      </c>
+      <c r="C8" s="45">
+        <v>10230565</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="45">
+        <v>1</v>
+      </c>
+      <c r="L8" s="46">
+        <v>0</v>
+      </c>
+      <c r="M8" s="46">
+        <v>0</v>
+      </c>
+      <c r="N8" s="46">
+        <v>1.78</v>
+      </c>
+      <c r="O8" s="46">
+        <v>1</v>
+      </c>
+      <c r="P8" s="46">
+        <v>2.16</v>
+      </c>
+      <c r="Q8" s="46">
+        <v>1.06</v>
+      </c>
+      <c r="R8" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="S8" s="45">
+        <v>1.87</v>
+      </c>
+      <c r="T8" s="46">
+        <v>3.64</v>
+      </c>
+      <c r="U8" s="46">
+        <v>2.08</v>
+      </c>
+      <c r="V8" s="46">
+        <v>3.51</v>
+      </c>
+      <c r="W8" s="46">
+        <v>2.83</v>
+      </c>
+      <c r="X8" s="46">
+        <v>3.19</v>
+      </c>
+      <c r="Y8" s="46">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="45">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45">
+        <v>1669143600</v>
+      </c>
+      <c r="C9" s="45">
+        <v>10230563</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="45">
+        <v>0</v>
+      </c>
+      <c r="F9" s="45">
+        <v>0</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0</v>
+      </c>
+      <c r="I9" s="45">
+        <v>0</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="45">
+        <v>1</v>
+      </c>
+      <c r="L9" s="46">
+        <v>0</v>
+      </c>
+      <c r="M9" s="46">
+        <v>0</v>
+      </c>
+      <c r="N9" s="46">
+        <v>2.14</v>
+      </c>
+      <c r="O9" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="P9" s="46">
         <v>1.85</v>
       </c>
-      <c r="T4" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="U4" s="29">
-        <v>2.09</v>
-      </c>
-      <c r="V4" s="29">
-        <v>6.03</v>
-      </c>
-      <c r="W4" s="29">
-        <v>2.25</v>
-      </c>
-      <c r="X4" s="29">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="Y4" s="29">
-        <v>6.2</v>
-      </c>
-      <c r="Z4" s="29">
-        <v>3.92</v>
-      </c>
-      <c r="AA4" s="29">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44">
-        <v>4</v>
-      </c>
-      <c r="B5" s="44">
-        <v>1669057200</v>
-      </c>
-      <c r="C5" s="44">
-        <v>10230548</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="44">
-        <v>37</v>
-      </c>
-      <c r="F5" s="44">
-        <v>0</v>
-      </c>
-      <c r="G5" s="44">
-        <v>0</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="44">
-        <v>7350</v>
-      </c>
-      <c r="J5" s="44">
-        <v>0</v>
-      </c>
-      <c r="K5" s="44">
-        <v>0</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" s="44">
-        <v>1</v>
-      </c>
-      <c r="N5" s="29">
-        <v>0</v>
-      </c>
-      <c r="O5" s="29">
-        <v>0</v>
-      </c>
-      <c r="P5" s="29">
-        <v>1.6</v>
-      </c>
-      <c r="Q5" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="29">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="S5" s="29">
-        <v>1.55</v>
-      </c>
-      <c r="T5" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="U5" s="29">
-        <v>2.7</v>
-      </c>
-      <c r="V5" s="29">
-        <v>3.32</v>
-      </c>
-      <c r="W5" s="29">
-        <v>2.06</v>
-      </c>
-      <c r="X5" s="44">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="29">
-        <v>2.54</v>
-      </c>
-      <c r="Z5" s="29">
-        <v>3.24</v>
-      </c>
-      <c r="AA5" s="29">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44">
-        <v>5</v>
-      </c>
-      <c r="B6" s="44">
-        <v>1669111200</v>
-      </c>
-      <c r="C6" s="44">
-        <v>10230528</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="44">
-        <v>24</v>
-      </c>
-      <c r="F6" s="44">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44">
-        <v>0</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="44">
-        <v>1489</v>
-      </c>
-      <c r="J6" s="44">
-        <v>0</v>
-      </c>
-      <c r="K6" s="44">
-        <v>0</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="44">
-        <v>1</v>
-      </c>
-      <c r="N6" s="29">
-        <v>0</v>
-      </c>
-      <c r="O6" s="29">
-        <v>0</v>
-      </c>
-      <c r="P6" s="29">
-        <v>2.59</v>
-      </c>
-      <c r="Q6" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="R6" s="29">
-        <v>1.56</v>
-      </c>
-      <c r="S6" s="29">
-        <v>1.69</v>
-      </c>
-      <c r="T6" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U6" s="44">
-        <v>2.35</v>
-      </c>
-      <c r="V6" s="29">
-        <v>1.65</v>
-      </c>
-      <c r="W6" s="29">
-        <v>2.87</v>
-      </c>
-      <c r="X6" s="29">
-        <v>13.12</v>
-      </c>
-      <c r="Y6" s="29">
-        <v>1.2</v>
-      </c>
-      <c r="Z6" s="29">
-        <v>8.1</v>
-      </c>
-      <c r="AA6" s="44">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44">
-        <v>6</v>
-      </c>
-      <c r="B7" s="44">
-        <v>1669122000</v>
-      </c>
-      <c r="C7" s="44">
-        <v>10230576</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="44">
-        <v>50</v>
-      </c>
-      <c r="F7" s="44">
-        <v>0</v>
-      </c>
-      <c r="G7" s="44">
-        <v>0</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="44">
-        <v>56</v>
-      </c>
-      <c r="J7" s="44">
-        <v>0</v>
-      </c>
-      <c r="K7" s="44">
-        <v>0</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="M7" s="44">
-        <v>1</v>
-      </c>
-      <c r="N7" s="29">
-        <v>0</v>
-      </c>
-      <c r="O7" s="29">
-        <v>0</v>
-      </c>
-      <c r="P7" s="29">
-        <v>1.48</v>
-      </c>
-      <c r="Q7" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R7" s="29">
-        <v>2.8</v>
-      </c>
-      <c r="S7" s="29">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T7" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="U7" s="44">
-        <v>2.78</v>
-      </c>
-      <c r="V7" s="29">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W7" s="29">
-        <v>2.34</v>
-      </c>
-      <c r="X7" s="29">
-        <v>7.76</v>
-      </c>
-      <c r="Y7" s="29">
-        <v>1.48</v>
-      </c>
-      <c r="Z7" s="29">
-        <v>4.7</v>
-      </c>
-      <c r="AA7" s="44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44">
-        <v>7</v>
-      </c>
-      <c r="B8" s="44">
-        <v>1669132800</v>
-      </c>
-      <c r="C8" s="44">
-        <v>10230565</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="44">
-        <v>6</v>
-      </c>
-      <c r="F8" s="44">
-        <v>0</v>
-      </c>
-      <c r="G8" s="44">
-        <v>0</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="44">
-        <v>7463</v>
-      </c>
-      <c r="J8" s="44">
-        <v>0</v>
-      </c>
-      <c r="K8" s="44">
-        <v>0</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="M8" s="44">
-        <v>1</v>
-      </c>
-      <c r="N8" s="29">
-        <v>0</v>
-      </c>
-      <c r="O8" s="29">
-        <v>0</v>
-      </c>
-      <c r="P8" s="29">
-        <v>1.78</v>
-      </c>
-      <c r="Q8" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R8" s="29">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="S8" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="T8" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="U8" s="44">
-        <v>1.6</v>
-      </c>
-      <c r="V8" s="29">
-        <v>3.64</v>
-      </c>
-      <c r="W8" s="29">
-        <v>2.08</v>
-      </c>
-      <c r="X8" s="29">
-        <v>3.51</v>
-      </c>
-      <c r="Y8" s="29">
-        <v>2.83</v>
-      </c>
-      <c r="Z8" s="29">
-        <v>3.19</v>
-      </c>
-      <c r="AA8" s="29">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="44" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44">
-        <v>8</v>
-      </c>
-      <c r="B9" s="44">
-        <v>1669143600</v>
-      </c>
-      <c r="C9" s="44">
-        <v>10230563</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="44">
-        <v>22</v>
-      </c>
-      <c r="F9" s="44">
-        <v>0</v>
-      </c>
-      <c r="G9" s="44">
-        <v>0</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="44">
-        <v>11</v>
-      </c>
-      <c r="J9" s="44">
-        <v>0</v>
-      </c>
-      <c r="K9" s="44">
-        <v>0</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" s="44">
-        <v>1</v>
-      </c>
-      <c r="N9" s="29">
-        <v>0</v>
-      </c>
-      <c r="O9" s="29">
-        <v>0</v>
-      </c>
-      <c r="P9" s="29">
-        <v>2.14</v>
-      </c>
-      <c r="Q9" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="R9" s="29">
-        <v>1.85</v>
-      </c>
-      <c r="S9" s="29">
-        <v>1.73</v>
-      </c>
-      <c r="T9" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="U9" s="44">
-        <v>2.33</v>
-      </c>
-      <c r="V9" s="29">
+      <c r="Q9" s="46">
+        <v>1.88</v>
+      </c>
+      <c r="R9" s="45">
+        <v>3</v>
+      </c>
+      <c r="S9" s="45">
+        <v>2.04</v>
+      </c>
+      <c r="T9" s="46">
         <v>1.72</v>
       </c>
-      <c r="W9" s="29">
+      <c r="U9" s="46">
         <v>2.98</v>
       </c>
-      <c r="X9" s="29">
+      <c r="V9" s="46">
         <v>9.5</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="W9" s="46">
         <v>1.28</v>
       </c>
-      <c r="Z9" s="29">
+      <c r="X9" s="46">
         <v>6.7</v>
       </c>
-      <c r="AA9" s="44">
+      <c r="Y9" s="45">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44">
-        <v>9</v>
-      </c>
-      <c r="B10" s="44">
-        <v>1669197600</v>
-      </c>
-      <c r="C10" s="44">
-        <v>10230570</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="44">
-        <v>1451</v>
-      </c>
-      <c r="F10" s="44">
-        <v>0</v>
-      </c>
-      <c r="G10" s="44">
-        <v>0</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="44">
-        <v>5</v>
-      </c>
-      <c r="J10" s="44">
-        <v>0</v>
-      </c>
-      <c r="K10" s="44">
-        <v>0</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" s="44">
-        <v>1</v>
-      </c>
-      <c r="N10" s="29">
-        <v>0</v>
-      </c>
-      <c r="O10" s="29">
-        <v>0</v>
-      </c>
-      <c r="P10" s="29">
-        <v>1.83</v>
-      </c>
-      <c r="Q10" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R10" s="44">
-        <v>2.16</v>
-      </c>
-      <c r="S10" s="29">
-        <v>2.14</v>
-      </c>
-      <c r="T10" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U10" s="44">
-        <v>1.88</v>
-      </c>
-      <c r="V10" s="29">
-        <v>5.55</v>
-      </c>
-      <c r="W10" s="29">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="X10" s="29">
-        <v>2.72</v>
-      </c>
-      <c r="Y10" s="29">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Z10" s="29">
-        <v>3.4</v>
-      </c>
-      <c r="AA10" s="44">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="44">
-        <v>10</v>
-      </c>
-      <c r="B11" s="44">
-        <v>1669208400</v>
-      </c>
-      <c r="C11" s="44">
-        <v>10230562</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="44">
-        <v>26</v>
-      </c>
-      <c r="F11" s="44">
-        <v>0</v>
-      </c>
-      <c r="G11" s="44">
-        <v>0</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="44">
-        <v>19</v>
-      </c>
-      <c r="J11" s="44">
-        <v>0</v>
-      </c>
-      <c r="K11" s="44">
-        <v>0</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="M11" s="44">
-        <v>1</v>
-      </c>
-      <c r="N11" s="29">
-        <v>0</v>
-      </c>
-      <c r="O11" s="29">
-        <v>0</v>
-      </c>
-      <c r="P11" s="29">
-        <v>2.76</v>
-      </c>
-      <c r="Q11" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="R11" s="29">
-        <v>1.54</v>
-      </c>
-      <c r="S11" s="29">
-        <v>1.74</v>
-      </c>
-      <c r="T11" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U11" s="44">
-        <v>2.25</v>
-      </c>
-      <c r="V11" s="29">
-        <v>2.04</v>
-      </c>
-      <c r="W11" s="29">
-        <v>2.54</v>
-      </c>
-      <c r="X11" s="29">
-        <v>6.8</v>
-      </c>
-      <c r="Y11" s="29">
-        <v>1.45</v>
-      </c>
-      <c r="Z11" s="29">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="44">
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44">
-        <v>11</v>
-      </c>
-      <c r="B12" s="44">
-        <v>1669219200</v>
-      </c>
-      <c r="C12" s="44">
-        <v>10230571</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="44">
-        <v>8</v>
-      </c>
-      <c r="F12" s="44">
-        <v>0</v>
-      </c>
-      <c r="G12" s="44">
-        <v>0</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I12" s="44">
-        <v>15</v>
-      </c>
-      <c r="J12" s="44">
-        <v>0</v>
-      </c>
-      <c r="K12" s="44">
-        <v>0</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="M12" s="44">
-        <v>1</v>
-      </c>
-      <c r="N12" s="29">
-        <v>0</v>
-      </c>
-      <c r="O12" s="29">
-        <v>0</v>
-      </c>
-      <c r="P12" s="29">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q12" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="R12" s="29">
-        <v>1.76</v>
-      </c>
-      <c r="S12" s="29">
-        <v>2.85</v>
-      </c>
-      <c r="T12" s="44">
-        <v>3.5</v>
-      </c>
-      <c r="U12" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="V12" s="29">
-        <v>1.7</v>
-      </c>
-      <c r="W12" s="29">
-        <v>2.77</v>
-      </c>
-      <c r="X12" s="29">
-        <v>13.25</v>
-      </c>
-      <c r="Y12" s="29">
-        <v>1.23</v>
-      </c>
-      <c r="Z12" s="29">
-        <v>7.3</v>
-      </c>
-      <c r="AA12" s="44">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="44">
-        <v>12</v>
-      </c>
-      <c r="B13" s="44">
-        <v>1669230000</v>
-      </c>
-      <c r="C13" s="44">
-        <v>10230559</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="44">
-        <v>32</v>
-      </c>
-      <c r="F13" s="44">
-        <v>0</v>
-      </c>
-      <c r="G13" s="44">
-        <v>0</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="44">
-        <v>45</v>
-      </c>
-      <c r="J13" s="44">
-        <v>0</v>
-      </c>
-      <c r="K13" s="44">
-        <v>0</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" s="44">
-        <v>1</v>
-      </c>
-      <c r="N13" s="29">
-        <v>0</v>
-      </c>
-      <c r="O13" s="29">
-        <v>0</v>
-      </c>
-      <c r="P13" s="29">
-        <v>2.79</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="R13" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="S13" s="29">
-        <v>1.82</v>
-      </c>
-      <c r="T13" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U13" s="44">
-        <v>2.13</v>
-      </c>
-      <c r="V13" s="29">
-        <v>1.96</v>
-      </c>
-      <c r="W13" s="29">
-        <v>2.6</v>
-      </c>
-      <c r="X13" s="29">
-        <v>8</v>
-      </c>
-      <c r="Y13" s="29">
-        <v>1.39</v>
-      </c>
-      <c r="Z13" s="29">
-        <v>5.45</v>
-      </c>
-      <c r="AA13" s="44">
-        <v>9.65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="44">
-        <v>13</v>
-      </c>
-      <c r="B14" s="44">
-        <v>1669284000</v>
-      </c>
-      <c r="C14" s="44">
-        <v>10230569</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="44">
-        <v>20</v>
-      </c>
-      <c r="F14" s="44">
-        <v>0</v>
-      </c>
-      <c r="G14" s="44">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="44">
-        <v>7</v>
-      </c>
-      <c r="J14" s="44">
-        <v>0</v>
-      </c>
-      <c r="K14" s="44">
-        <v>0</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="44">
-        <v>1</v>
-      </c>
-      <c r="N14" s="29">
-        <v>0</v>
-      </c>
-      <c r="O14" s="29">
-        <v>0</v>
-      </c>
-      <c r="P14" s="29">
-        <v>1.55</v>
-      </c>
-      <c r="Q14" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R14" s="29">
-        <v>2.6</v>
-      </c>
-      <c r="S14" s="29">
-        <v>1.46</v>
-      </c>
-      <c r="T14" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="U14" s="44">
-        <v>2.98</v>
-      </c>
-      <c r="V14" s="29">
-        <v>2.61</v>
-      </c>
-      <c r="W14" s="29">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="X14" s="29">
-        <v>6.25</v>
-      </c>
-      <c r="Y14" s="29">
-        <v>1.84</v>
-      </c>
-      <c r="Z14" s="29">
-        <v>3.67</v>
-      </c>
-      <c r="AA14" s="44">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="44">
-        <v>14</v>
-      </c>
-      <c r="B15" s="44">
-        <v>1669294800</v>
-      </c>
-      <c r="C15" s="44">
-        <v>10230530</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="44">
-        <v>14</v>
-      </c>
-      <c r="F15" s="44">
-        <v>0</v>
-      </c>
-      <c r="G15" s="44">
-        <v>0</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="44">
-        <v>35</v>
-      </c>
-      <c r="J15" s="44">
-        <v>0</v>
-      </c>
-      <c r="K15" s="44">
-        <v>0</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" s="44">
-        <v>1</v>
-      </c>
-      <c r="N15" s="29">
-        <v>0</v>
-      </c>
-      <c r="O15" s="29">
-        <v>0</v>
-      </c>
-      <c r="P15" s="29">
-        <v>1.83</v>
-      </c>
-      <c r="Q15" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R15" s="29">
-        <v>2.12</v>
-      </c>
-      <c r="S15" s="29">
-        <v>2.13</v>
-      </c>
-      <c r="T15" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U15" s="44">
-        <v>1.8</v>
-      </c>
-      <c r="V15" s="29">
-        <v>2.66</v>
-      </c>
-      <c r="W15" s="29">
-        <v>2.1</v>
-      </c>
-      <c r="X15" s="29">
-        <v>5.78</v>
-      </c>
-      <c r="Y15" s="29">
-        <v>1.85</v>
-      </c>
-      <c r="Z15" s="29">
-        <v>3.6</v>
-      </c>
-      <c r="AA15" s="44">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="44">
-        <v>15</v>
-      </c>
-      <c r="B16" s="44">
-        <v>1669305600</v>
-      </c>
-      <c r="C16" s="44">
-        <v>10230534</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="44">
-        <v>27</v>
-      </c>
-      <c r="F16" s="44">
-        <v>0</v>
-      </c>
-      <c r="G16" s="44">
-        <v>0</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="44">
-        <v>30</v>
-      </c>
-      <c r="J16" s="44">
-        <v>0</v>
-      </c>
-      <c r="K16" s="44">
-        <v>0</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="M16" s="44">
-        <v>1</v>
-      </c>
-      <c r="N16" s="29">
-        <v>0</v>
-      </c>
-      <c r="O16" s="29">
-        <v>0</v>
-      </c>
-      <c r="P16" s="29">
-        <v>3.29</v>
-      </c>
-      <c r="Q16" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="R16" s="29">
-        <v>1.4</v>
-      </c>
-      <c r="S16" s="29">
-        <v>2.17</v>
-      </c>
-      <c r="T16" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U16" s="44">
-        <v>1.82</v>
-      </c>
-      <c r="V16" s="29">
-        <v>2.08</v>
-      </c>
-      <c r="W16" s="29">
-        <v>2.31</v>
-      </c>
-      <c r="X16" s="29">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Y16" s="29">
-        <v>1.52</v>
-      </c>
-      <c r="Z16" s="29">
-        <v>4.7</v>
-      </c>
-      <c r="AA16" s="44">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="44">
-        <v>16</v>
-      </c>
-      <c r="B17" s="44">
-        <v>1669316400</v>
-      </c>
-      <c r="C17" s="44">
-        <v>10230567</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="44">
-        <v>4</v>
-      </c>
-      <c r="F17" s="44">
-        <v>0</v>
-      </c>
-      <c r="G17" s="44">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="44">
-        <v>955</v>
-      </c>
-      <c r="J17" s="44">
-        <v>0</v>
-      </c>
-      <c r="K17" s="44">
-        <v>0</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="M17" s="44">
-        <v>1</v>
-      </c>
-      <c r="N17" s="29">
-        <v>0</v>
-      </c>
-      <c r="O17" s="29">
-        <v>0</v>
-      </c>
-      <c r="P17" s="29">
-        <v>2.83</v>
-      </c>
-      <c r="Q17" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="R17" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="S17" s="29">
-        <v>1.85</v>
-      </c>
-      <c r="T17" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U17" s="44">
-        <v>2.13</v>
-      </c>
-      <c r="V17" s="29">
-        <v>2.11</v>
-      </c>
-      <c r="W17" s="29">
-        <v>2.41</v>
-      </c>
-      <c r="X17" s="29">
-        <v>7</v>
-      </c>
-      <c r="Y17" s="29">
-        <v>1.51</v>
-      </c>
-      <c r="Z17" s="29">
-        <v>4.7</v>
-      </c>
-      <c r="AA17" s="44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="44">
-        <v>17</v>
-      </c>
-      <c r="B18" s="44">
-        <v>1669370400</v>
-      </c>
-      <c r="C18" s="44">
-        <v>10230556</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="44">
-        <v>7350</v>
-      </c>
-      <c r="F18" s="44">
-        <v>0</v>
-      </c>
-      <c r="G18" s="44">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="44">
-        <v>28</v>
-      </c>
-      <c r="J18" s="44">
-        <v>0</v>
-      </c>
-      <c r="K18" s="44">
-        <v>0</v>
-      </c>
-      <c r="L18" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" s="44">
-        <v>2</v>
-      </c>
-      <c r="N18" s="29">
-        <v>0</v>
-      </c>
-      <c r="O18" s="29">
-        <v>0</v>
-      </c>
-      <c r="P18" s="44">
-        <v>1.9</v>
-      </c>
-      <c r="Q18" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R18" s="29">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="S18" s="29">
-        <v>2.65</v>
-      </c>
-      <c r="T18" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U18" s="44">
-        <v>1.57</v>
-      </c>
-      <c r="V18" s="29">
-        <v>3.03</v>
-      </c>
-      <c r="W18" s="29">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="X18" s="29">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Y18" s="29">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="Z18" s="29">
-        <v>3.2</v>
-      </c>
-      <c r="AA18" s="44">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="44">
-        <v>18</v>
-      </c>
-      <c r="B19" s="44">
-        <v>1669381200</v>
-      </c>
-      <c r="C19" s="44">
-        <v>10230537</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="44">
-        <v>7643</v>
-      </c>
-      <c r="F19" s="44">
-        <v>0</v>
-      </c>
-      <c r="G19" s="44">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="44">
-        <v>1043</v>
-      </c>
-      <c r="J19" s="44">
-        <v>0</v>
-      </c>
-      <c r="K19" s="44">
-        <v>0</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="44">
-        <v>2</v>
-      </c>
-      <c r="N19" s="29">
-        <v>0</v>
-      </c>
-      <c r="O19" s="29">
-        <v>0</v>
-      </c>
-      <c r="P19" s="44">
-        <v>1.84</v>
-      </c>
-      <c r="Q19" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R19" s="29">
-        <v>2.11</v>
-      </c>
-      <c r="S19" s="29">
-        <v>2.4</v>
-      </c>
-      <c r="T19" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U19" s="44">
-        <v>1.66</v>
-      </c>
-      <c r="V19" s="44">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="W19" s="29">
-        <v>2.08</v>
-      </c>
-      <c r="X19" s="29">
-        <v>2.99</v>
-      </c>
-      <c r="Y19" s="29">
-        <v>4.3</v>
-      </c>
-      <c r="Z19" s="29">
-        <v>3.4</v>
-      </c>
-      <c r="AA19" s="44">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="44">
-        <v>19</v>
-      </c>
-      <c r="B20" s="44">
-        <v>1669392000</v>
-      </c>
-      <c r="C20" s="44">
-        <v>10230529</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="44">
-        <v>36</v>
-      </c>
-      <c r="F20" s="44">
-        <v>0</v>
-      </c>
-      <c r="G20" s="44">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="44">
-        <v>21</v>
-      </c>
-      <c r="J20" s="44">
-        <v>0</v>
-      </c>
-      <c r="K20" s="44">
-        <v>0</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="44">
-        <v>2</v>
-      </c>
-      <c r="N20" s="29">
-        <v>0</v>
-      </c>
-      <c r="O20" s="29">
-        <v>0</v>
-      </c>
-      <c r="P20" s="44">
-        <v>2.92</v>
-      </c>
-      <c r="Q20" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="R20" s="29">
-        <v>1.44</v>
-      </c>
-      <c r="S20" s="29">
-        <v>1.9</v>
-      </c>
-      <c r="T20" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U20" s="44">
-        <v>2.1</v>
-      </c>
-      <c r="V20" s="44">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="W20" s="29">
-        <v>2.41</v>
-      </c>
-      <c r="X20" s="29">
-        <v>5.6</v>
-      </c>
-      <c r="Y20" s="29">
-        <v>1.68</v>
-      </c>
-      <c r="Z20" s="29">
-        <v>4.2</v>
-      </c>
-      <c r="AA20" s="44">
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="44">
-        <v>20</v>
-      </c>
-      <c r="B21" s="44">
-        <v>1669402800</v>
-      </c>
-      <c r="C21" s="44">
-        <v>10230557</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="44">
-        <v>16</v>
-      </c>
-      <c r="F21" s="44">
-        <v>0</v>
-      </c>
-      <c r="G21" s="44">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="44">
-        <v>37</v>
-      </c>
-      <c r="J21" s="44">
-        <v>0</v>
-      </c>
-      <c r="K21" s="44">
-        <v>0</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="M21" s="44">
-        <v>2</v>
-      </c>
-      <c r="N21" s="29">
-        <v>0</v>
-      </c>
-      <c r="O21" s="29">
-        <v>0</v>
-      </c>
-      <c r="P21" s="44">
-        <v>1.45</v>
-      </c>
-      <c r="Q21" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R21" s="29">
-        <v>2.85</v>
-      </c>
-      <c r="S21" s="29">
-        <v>2.1</v>
-      </c>
-      <c r="T21" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U21" s="44">
-        <v>1.84</v>
-      </c>
-      <c r="V21" s="44">
-        <v>2.37</v>
-      </c>
-      <c r="W21" s="29">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="X21" s="29">
-        <v>5.7</v>
-      </c>
-      <c r="Y21" s="29">
-        <v>1.71</v>
-      </c>
-      <c r="Z21" s="29">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AA21" s="44">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="44">
-        <v>21</v>
-      </c>
-      <c r="B22" s="44">
-        <v>1669456800</v>
-      </c>
-      <c r="C22" s="44">
-        <v>10230574</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="29">
-        <v>56</v>
-      </c>
-      <c r="F22" s="44">
-        <v>0</v>
-      </c>
-      <c r="G22" s="44">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="44">
-        <v>11</v>
-      </c>
-      <c r="J22" s="44">
-        <v>0</v>
-      </c>
-      <c r="K22" s="44">
-        <v>0</v>
-      </c>
-      <c r="L22" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="44">
-        <v>2</v>
-      </c>
-      <c r="N22" s="29">
-        <v>0</v>
-      </c>
-      <c r="O22" s="29">
-        <v>0</v>
-      </c>
-      <c r="P22" s="44">
-        <v>1.59</v>
-      </c>
-      <c r="Q22" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R22" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="S22" s="29">
-        <v>1.49</v>
-      </c>
-      <c r="T22" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="U22" s="44">
-        <v>2.82</v>
-      </c>
-      <c r="V22" s="44">
-        <v>3.8</v>
-      </c>
-      <c r="W22" s="29">
-        <v>1.99</v>
-      </c>
-      <c r="X22" s="29">
-        <v>2.62</v>
-      </c>
-      <c r="Y22" s="29">
-        <v>2.95</v>
-      </c>
-      <c r="Z22" s="29">
-        <v>3.15</v>
-      </c>
-      <c r="AA22" s="44">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="44">
-        <v>22</v>
-      </c>
-      <c r="B23" s="44">
-        <v>1669467600</v>
-      </c>
-      <c r="C23" s="44">
-        <v>10230542</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="29">
-        <v>7463</v>
-      </c>
-      <c r="F23" s="44">
-        <v>0</v>
-      </c>
-      <c r="G23" s="44">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="44">
-        <v>1489</v>
-      </c>
-      <c r="J23" s="44">
-        <v>0</v>
-      </c>
-      <c r="K23" s="44">
-        <v>0</v>
-      </c>
-      <c r="L23" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="M23" s="44">
-        <v>2</v>
-      </c>
-      <c r="N23" s="29">
-        <v>0</v>
-      </c>
-      <c r="O23" s="29">
-        <v>0</v>
-      </c>
-      <c r="P23" s="44">
-        <v>1.47</v>
-      </c>
-      <c r="Q23" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R23" s="29">
-        <v>2.85</v>
-      </c>
-      <c r="S23" s="29">
-        <v>2.09</v>
-      </c>
-      <c r="T23" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U23" s="44">
-        <v>1.88</v>
-      </c>
-      <c r="V23" s="44">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="W23" s="29">
-        <v>2.27</v>
-      </c>
-      <c r="X23" s="29">
-        <v>5.85</v>
-      </c>
-      <c r="Y23" s="29">
-        <v>1.68</v>
-      </c>
-      <c r="Z23" s="29">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AA23" s="44">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="44">
-        <v>23</v>
-      </c>
-      <c r="B24" s="44">
-        <v>1669478400</v>
-      </c>
-      <c r="C24" s="44">
-        <v>10230577</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="29">
-        <v>22</v>
-      </c>
-      <c r="F24" s="44">
-        <v>0</v>
-      </c>
-      <c r="G24" s="44">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="44">
-        <v>50</v>
-      </c>
-      <c r="J24" s="44">
-        <v>0</v>
-      </c>
-      <c r="K24" s="44">
-        <v>0</v>
-      </c>
-      <c r="L24" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="M24" s="44">
-        <v>2</v>
-      </c>
-      <c r="N24" s="29">
-        <v>0</v>
-      </c>
-      <c r="O24" s="29">
-        <v>0</v>
-      </c>
-      <c r="P24" s="44">
-        <v>1.83</v>
-      </c>
-      <c r="Q24" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R24" s="29">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="S24" s="29">
-        <v>2.35</v>
-      </c>
-      <c r="T24" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U24" s="44">
-        <v>1.72</v>
-      </c>
-      <c r="V24" s="44">
-        <v>2.79</v>
-      </c>
-      <c r="W24" s="29">
-        <v>2.14</v>
-      </c>
-      <c r="X24" s="29">
-        <v>5.2</v>
-      </c>
-      <c r="Y24" s="29">
-        <v>2.1</v>
-      </c>
-      <c r="Z24" s="29">
-        <v>3.45</v>
-      </c>
-      <c r="AA24" s="44">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="44">
-        <v>24</v>
-      </c>
-      <c r="B25" s="44">
-        <v>1669489200</v>
-      </c>
-      <c r="C25" s="44">
-        <v>10230540</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="29">
-        <v>24</v>
-      </c>
-      <c r="F25" s="44">
-        <v>0</v>
-      </c>
-      <c r="G25" s="44">
-        <v>0</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="44">
-        <v>6</v>
-      </c>
-      <c r="J25" s="44">
-        <v>0</v>
-      </c>
-      <c r="K25" s="44">
-        <v>0</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="M25" s="44">
-        <v>2</v>
-      </c>
-      <c r="N25" s="29">
-        <v>0</v>
-      </c>
-      <c r="O25" s="29">
-        <v>0</v>
-      </c>
-      <c r="P25" s="44">
-        <v>3.22</v>
-      </c>
-      <c r="Q25" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="R25" s="29">
-        <v>1.4</v>
-      </c>
-      <c r="S25" s="29">
-        <v>1.94</v>
-      </c>
-      <c r="T25" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U25" s="44">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="V25" s="44">
-        <v>2.25</v>
-      </c>
-      <c r="W25" s="29">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="X25" s="29">
-        <v>6.5</v>
-      </c>
-      <c r="Y25" s="29">
-        <v>1.63</v>
-      </c>
-      <c r="Z25" s="29">
-        <v>4.2</v>
-      </c>
-      <c r="AA25" s="44">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="44">
-        <v>25</v>
-      </c>
-      <c r="B26" s="44">
-        <v>1669543200</v>
-      </c>
-      <c r="C26" s="44">
-        <v>10230564</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="29">
-        <v>19</v>
-      </c>
-      <c r="F26" s="44">
-        <v>0</v>
-      </c>
-      <c r="G26" s="44">
-        <v>0</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26" s="44">
-        <v>15</v>
-      </c>
-      <c r="J26" s="44">
-        <v>0</v>
-      </c>
-      <c r="K26" s="44">
-        <v>0</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="M26" s="44">
-        <v>2</v>
-      </c>
-      <c r="N26" s="29">
-        <v>0</v>
-      </c>
-      <c r="O26" s="29">
-        <v>0</v>
-      </c>
-      <c r="P26" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="Q26" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R26" s="29">
-        <v>2.65</v>
-      </c>
-      <c r="S26" s="29">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="T26" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U26" s="44">
-        <v>1.85</v>
-      </c>
-      <c r="V26" s="44">
-        <v>2.66</v>
-      </c>
-      <c r="W26" s="29">
-        <v>2.11</v>
-      </c>
-      <c r="X26" s="29">
-        <v>5.5</v>
-      </c>
-      <c r="Y26" s="29">
-        <v>1.93</v>
-      </c>
-      <c r="Z26" s="29">
-        <v>3.47</v>
-      </c>
-      <c r="AA26" s="44">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="44">
-        <v>26</v>
-      </c>
-      <c r="B27" s="44">
-        <v>1669554000</v>
-      </c>
-      <c r="C27" s="44">
-        <v>10230545</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="29">
-        <v>32</v>
-      </c>
-      <c r="F27" s="44">
-        <v>0</v>
-      </c>
-      <c r="G27" s="44">
-        <v>0</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="I27" s="44">
-        <v>1451</v>
-      </c>
-      <c r="J27" s="44">
-        <v>0</v>
-      </c>
-      <c r="K27" s="44">
-        <v>0</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="M27" s="44">
-        <v>2</v>
-      </c>
-      <c r="N27" s="29">
-        <v>0</v>
-      </c>
-      <c r="O27" s="29">
-        <v>0</v>
-      </c>
-      <c r="P27" s="44">
-        <v>2.85</v>
-      </c>
-      <c r="Q27" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="R27" s="29">
-        <v>1.45</v>
-      </c>
-      <c r="S27" s="29">
-        <v>1.96</v>
-      </c>
-      <c r="T27" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U27" s="44">
-        <v>1.97</v>
-      </c>
-      <c r="V27" s="44">
-        <v>2.23</v>
-      </c>
-      <c r="W27" s="29">
-        <v>2.36</v>
-      </c>
-      <c r="X27" s="29">
-        <v>6.2</v>
-      </c>
-      <c r="Y27" s="29">
-        <v>1.56</v>
-      </c>
-      <c r="Z27" s="29">
-        <v>4.5</v>
-      </c>
-      <c r="AA27" s="44">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="44">
-        <v>27</v>
-      </c>
-      <c r="B28" s="44">
-        <v>1669564800</v>
-      </c>
-      <c r="C28" s="44">
-        <v>10230550</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="29">
-        <v>5</v>
-      </c>
-      <c r="F28" s="44">
-        <v>0</v>
-      </c>
-      <c r="G28" s="44">
-        <v>0</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="44">
-        <v>45</v>
-      </c>
-      <c r="J28" s="44">
-        <v>0</v>
-      </c>
-      <c r="K28" s="44">
-        <v>0</v>
-      </c>
-      <c r="L28" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="M28" s="44">
-        <v>2</v>
-      </c>
-      <c r="N28" s="29">
-        <v>0</v>
-      </c>
-      <c r="O28" s="29">
-        <v>0</v>
-      </c>
-      <c r="P28" s="44">
-        <v>1.47</v>
-      </c>
-      <c r="Q28" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R28" s="29">
-        <v>2.83</v>
-      </c>
-      <c r="S28" s="29">
-        <v>2.12</v>
-      </c>
-      <c r="T28" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U28" s="44">
-        <v>1.84</v>
-      </c>
-      <c r="V28" s="44">
-        <v>2.54</v>
-      </c>
-      <c r="W28" s="29">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="X28" s="29">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Y28" s="29">
-        <v>1.85</v>
-      </c>
-      <c r="Z28" s="29">
-        <v>3.98</v>
-      </c>
-      <c r="AA28" s="44">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="44">
-        <v>28</v>
-      </c>
-      <c r="B29" s="44">
-        <v>1669575600</v>
-      </c>
-      <c r="C29" s="44">
-        <v>10230575</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="29">
-        <v>8</v>
-      </c>
-      <c r="F29" s="44">
-        <v>0</v>
-      </c>
-      <c r="G29" s="44">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="44">
-        <v>26</v>
-      </c>
-      <c r="J29" s="44">
-        <v>0</v>
-      </c>
-      <c r="K29" s="44">
-        <v>0</v>
-      </c>
-      <c r="L29" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="M29" s="44">
-        <v>2</v>
-      </c>
-      <c r="N29" s="29">
-        <v>0</v>
-      </c>
-      <c r="O29" s="29">
-        <v>0</v>
-      </c>
-      <c r="P29" s="44">
-        <v>1.43</v>
-      </c>
-      <c r="Q29" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R29" s="29">
-        <v>2.95</v>
-      </c>
-      <c r="S29" s="29">
-        <v>1.99</v>
-      </c>
-      <c r="T29" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U29" s="44">
-        <v>1.95</v>
-      </c>
-      <c r="V29" s="44">
-        <v>3.23</v>
-      </c>
-      <c r="W29" s="29">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="X29" s="29">
-        <v>3.45</v>
-      </c>
-      <c r="Y29" s="29">
-        <v>2.62</v>
-      </c>
-      <c r="Z29" s="29">
-        <v>3.47</v>
-      </c>
-      <c r="AA29" s="44">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="44">
-        <v>29</v>
-      </c>
-      <c r="B30" s="44">
-        <v>1669629600</v>
-      </c>
-      <c r="C30" s="44">
-        <v>10230568</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="29">
-        <v>7</v>
-      </c>
-      <c r="F30" s="44">
-        <v>0</v>
-      </c>
-      <c r="G30" s="44">
-        <v>0</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="44">
-        <v>955</v>
-      </c>
-      <c r="J30" s="44">
-        <v>0</v>
-      </c>
-      <c r="K30" s="44">
-        <v>0</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="M30" s="44">
-        <v>2</v>
-      </c>
-      <c r="N30" s="29">
-        <v>0</v>
-      </c>
-      <c r="O30" s="29">
-        <v>0</v>
-      </c>
-      <c r="P30" s="44">
-        <v>1.84</v>
-      </c>
-      <c r="Q30" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R30" s="44">
-        <v>2.08</v>
-      </c>
-      <c r="S30" s="29">
-        <v>1.48</v>
-      </c>
-      <c r="T30" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="U30" s="44">
-        <v>2.95</v>
-      </c>
-      <c r="V30" s="44">
-        <v>5.55</v>
-      </c>
-      <c r="W30" s="29">
-        <v>2.08</v>
-      </c>
-      <c r="X30" s="29">
-        <v>2.75</v>
-      </c>
-      <c r="Y30" s="29">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Z30" s="29">
-        <v>3.55</v>
-      </c>
-      <c r="AA30" s="44">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="44">
-        <v>30</v>
-      </c>
-      <c r="B31" s="44">
-        <v>1669640400</v>
-      </c>
-      <c r="C31" s="44">
-        <v>10230552</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="29">
-        <v>35</v>
-      </c>
-      <c r="F31" s="44">
-        <v>0</v>
-      </c>
-      <c r="G31" s="44">
-        <v>0</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="44">
-        <v>30</v>
-      </c>
-      <c r="J31" s="44">
-        <v>0</v>
-      </c>
-      <c r="K31" s="44">
-        <v>0</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="M31" s="44">
-        <v>2</v>
-      </c>
-      <c r="N31" s="29">
-        <v>0</v>
-      </c>
-      <c r="O31" s="29">
-        <v>0</v>
-      </c>
-      <c r="P31" s="44">
-        <v>1.61</v>
-      </c>
-      <c r="Q31" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R31" s="44">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="S31" s="29">
-        <v>1.54</v>
-      </c>
-      <c r="T31" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="U31" s="44">
-        <v>2.69</v>
-      </c>
-      <c r="V31" s="44">
-        <v>3.52</v>
-      </c>
-      <c r="W31" s="29">
-        <v>2</v>
-      </c>
-      <c r="X31" s="29">
-        <v>3.94</v>
-      </c>
-      <c r="Y31" s="29">
-        <v>2.77</v>
-      </c>
-      <c r="Z31" s="29">
-        <v>3.05</v>
-      </c>
-      <c r="AA31" s="44">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="44">
-        <v>31</v>
-      </c>
-      <c r="B32" s="44">
-        <v>1669651200</v>
-      </c>
-      <c r="C32" s="44">
-        <v>10230561</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="29">
-        <v>4</v>
-      </c>
-      <c r="F32" s="44">
-        <v>0</v>
-      </c>
-      <c r="G32" s="44">
-        <v>0</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I32" s="44">
-        <v>20</v>
-      </c>
-      <c r="J32" s="44">
-        <v>0</v>
-      </c>
-      <c r="K32" s="44">
-        <v>0</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" s="44">
-        <v>2</v>
-      </c>
-      <c r="N32" s="29">
-        <v>0</v>
-      </c>
-      <c r="O32" s="29">
-        <v>0</v>
-      </c>
-      <c r="P32" s="44">
-        <v>3.04</v>
-      </c>
-      <c r="Q32" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="R32" s="44">
-        <v>1.45</v>
-      </c>
-      <c r="S32" s="29">
-        <v>1.96</v>
-      </c>
-      <c r="T32" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U32" s="44">
-        <v>1.95</v>
-      </c>
-      <c r="V32" s="44">
-        <v>2.25</v>
-      </c>
-      <c r="W32" s="29">
-        <v>2.38</v>
-      </c>
-      <c r="X32" s="29">
-        <v>6.65</v>
-      </c>
-      <c r="Y32" s="29">
-        <v>1.53</v>
-      </c>
-      <c r="Z32" s="29">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AA32" s="44">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="44">
-        <v>32</v>
-      </c>
-      <c r="B33" s="44">
-        <v>1669662000</v>
-      </c>
-      <c r="C33" s="44">
-        <v>10230539</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" s="29">
-        <v>27</v>
-      </c>
-      <c r="F33" s="44">
-        <v>0</v>
-      </c>
-      <c r="G33" s="44">
-        <v>0</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="I33" s="44">
-        <v>14</v>
-      </c>
-      <c r="J33" s="44">
-        <v>0</v>
-      </c>
-      <c r="K33" s="44">
-        <v>0</v>
-      </c>
-      <c r="L33" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="M33" s="44">
-        <v>2</v>
-      </c>
-      <c r="N33" s="29">
-        <v>0</v>
-      </c>
-      <c r="O33" s="29">
-        <v>0</v>
-      </c>
-      <c r="P33" s="44">
-        <v>1.51</v>
-      </c>
-      <c r="Q33" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R33" s="44">
-        <v>2.7</v>
-      </c>
-      <c r="S33" s="29">
-        <v>2.25</v>
-      </c>
-      <c r="T33" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U33" s="44">
-        <v>1.75</v>
-      </c>
-      <c r="V33" s="44">
-        <v>2.85</v>
-      </c>
-      <c r="W33" s="29">
-        <v>2.15</v>
-      </c>
-      <c r="X33" s="29">
-        <v>4.5</v>
-      </c>
-      <c r="Y33" s="29">
-        <v>2.17</v>
-      </c>
-      <c r="Z33" s="29">
-        <v>3.5</v>
-      </c>
-      <c r="AA33" s="44">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="44">
-        <v>33</v>
-      </c>
-      <c r="B34" s="44">
-        <v>1669734000</v>
-      </c>
-      <c r="C34" s="44">
-        <v>10230551</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="29">
-        <v>21</v>
-      </c>
-      <c r="F34" s="44">
-        <v>0</v>
-      </c>
-      <c r="G34" s="44">
-        <v>0</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="I34" s="44">
-        <v>1043</v>
-      </c>
-      <c r="J34" s="44">
-        <v>0</v>
-      </c>
-      <c r="K34" s="44">
-        <v>0</v>
-      </c>
-      <c r="L34" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="M34" s="44">
-        <v>3</v>
-      </c>
-      <c r="N34" s="29">
-        <v>0</v>
-      </c>
-      <c r="O34" s="29">
-        <v>0</v>
-      </c>
-      <c r="P34" s="44">
-        <v>1.53</v>
-      </c>
-      <c r="Q34" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R34" s="44">
-        <v>2.63</v>
-      </c>
-      <c r="S34" s="29">
-        <v>1.96</v>
-      </c>
-      <c r="T34" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U34" s="44">
-        <v>1.95</v>
-      </c>
-      <c r="V34" s="44">
-        <v>3.6</v>
-      </c>
-      <c r="W34" s="29">
-        <v>2.1</v>
-      </c>
-      <c r="X34" s="29">
-        <v>3.31</v>
-      </c>
-      <c r="Y34" s="29">
-        <v>3.05</v>
-      </c>
-      <c r="Z34" s="29">
-        <v>3.32</v>
-      </c>
-      <c r="AA34" s="44">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="44">
-        <v>34</v>
-      </c>
-      <c r="B35" s="44">
-        <v>1669734000</v>
-      </c>
-      <c r="C35" s="44">
-        <v>10230538</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="29">
-        <v>36</v>
-      </c>
-      <c r="F35" s="44">
-        <v>0</v>
-      </c>
-      <c r="G35" s="44">
-        <v>0</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" s="44">
-        <v>7643</v>
-      </c>
-      <c r="J35" s="44">
-        <v>0</v>
-      </c>
-      <c r="K35" s="44">
-        <v>0</v>
-      </c>
-      <c r="L35" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="M35" s="44">
-        <v>3</v>
-      </c>
-      <c r="N35" s="29">
-        <v>0</v>
-      </c>
-      <c r="O35" s="29">
-        <v>0</v>
-      </c>
-      <c r="P35" s="44">
-        <v>2.34</v>
-      </c>
-      <c r="Q35" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="R35" s="44">
-        <v>1.7</v>
-      </c>
-      <c r="S35" s="29">
-        <v>2.75</v>
-      </c>
-      <c r="T35" s="44">
-        <v>3.5</v>
-      </c>
-      <c r="U35" s="44">
-        <v>1.56</v>
-      </c>
-      <c r="V35" s="44">
-        <v>1.83</v>
-      </c>
-      <c r="W35" s="29">
-        <v>2.66</v>
-      </c>
-      <c r="X35" s="29">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Y35" s="29">
-        <v>1.36</v>
-      </c>
-      <c r="Z35" s="29">
-        <v>5.6</v>
-      </c>
-      <c r="AA35" s="44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="44">
-        <v>35</v>
-      </c>
-      <c r="B36" s="44">
-        <v>1669748400</v>
-      </c>
-      <c r="C36" s="44">
-        <v>10230536</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="29">
-        <v>28</v>
-      </c>
-      <c r="F36" s="44">
-        <v>0</v>
-      </c>
-      <c r="G36" s="44">
-        <v>0</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="44">
-        <v>37</v>
-      </c>
-      <c r="J36" s="44">
-        <v>0</v>
-      </c>
-      <c r="K36" s="44">
-        <v>0</v>
-      </c>
-      <c r="L36" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="M36" s="44">
-        <v>3</v>
-      </c>
-      <c r="N36" s="29">
-        <v>0</v>
-      </c>
-      <c r="O36" s="29">
-        <v>0</v>
-      </c>
-      <c r="P36" s="44">
-        <v>1.49</v>
-      </c>
-      <c r="Q36" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R36" s="44">
-        <v>2.7</v>
-      </c>
-      <c r="S36" s="29">
-        <v>1.99</v>
-      </c>
-      <c r="T36" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U36" s="44">
-        <v>1.92</v>
-      </c>
-      <c r="V36" s="44">
-        <v>4</v>
-      </c>
-      <c r="W36" s="29">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="X36" s="29">
-        <v>2.81</v>
-      </c>
-      <c r="Y36" s="29">
-        <v>3.61</v>
-      </c>
-      <c r="Z36" s="29">
-        <v>3.55</v>
-      </c>
-      <c r="AA36" s="44">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="44">
-        <v>36</v>
-      </c>
-      <c r="B37" s="44">
-        <v>1669748400</v>
-      </c>
-      <c r="C37" s="44">
-        <v>10230532</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="29">
-        <v>7350</v>
-      </c>
-      <c r="F37" s="44">
-        <v>0</v>
-      </c>
-      <c r="G37" s="44">
-        <v>0</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="I37" s="44">
-        <v>16</v>
-      </c>
-      <c r="J37" s="44">
-        <v>0</v>
-      </c>
-      <c r="K37" s="44">
-        <v>0</v>
-      </c>
-      <c r="L37" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="M37" s="44">
-        <v>3</v>
-      </c>
-      <c r="N37" s="29">
-        <v>0</v>
-      </c>
-      <c r="O37" s="29">
-        <v>0</v>
-      </c>
-      <c r="P37" s="44">
-        <v>1.4</v>
-      </c>
-      <c r="Q37" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R37" s="44">
-        <v>3</v>
-      </c>
-      <c r="S37" s="29">
-        <v>2.16</v>
-      </c>
-      <c r="T37" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U37" s="44">
-        <v>1.9</v>
-      </c>
-      <c r="V37" s="44">
-        <v>6.35</v>
-      </c>
-      <c r="W37" s="29">
-        <v>2.34</v>
-      </c>
-      <c r="X37" s="29">
-        <v>2.15</v>
-      </c>
-      <c r="Y37" s="29">
-        <v>6.4</v>
-      </c>
-      <c r="Z37" s="29">
-        <v>4.2</v>
-      </c>
-      <c r="AA37" s="44">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="44">
-        <v>37</v>
-      </c>
-      <c r="B38" s="44">
-        <v>1669820400</v>
-      </c>
-      <c r="C38" s="44">
-        <v>10230560</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="29">
-        <v>11</v>
-      </c>
-      <c r="F38" s="44">
-        <v>0</v>
-      </c>
-      <c r="G38" s="44">
-        <v>0</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I38" s="29">
-        <v>50</v>
-      </c>
-      <c r="J38" s="44">
-        <v>0</v>
-      </c>
-      <c r="K38" s="44">
-        <v>0</v>
-      </c>
-      <c r="L38" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="M38" s="44">
-        <v>3</v>
-      </c>
-      <c r="N38" s="29">
-        <v>0</v>
-      </c>
-      <c r="O38" s="29">
-        <v>0</v>
-      </c>
-      <c r="P38" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="Q38" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R38" s="44">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="S38" s="29">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="T38" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U38" s="44">
-        <v>1.67</v>
-      </c>
-      <c r="V38" s="44">
-        <v>7.2</v>
-      </c>
-      <c r="W38" s="29">
-        <v>2.15</v>
-      </c>
-      <c r="X38" s="29">
-        <v>2.31</v>
-      </c>
-      <c r="Y38" s="29">
-        <v>6.9</v>
-      </c>
-      <c r="Z38" s="29">
-        <v>3.91</v>
-      </c>
-      <c r="AA38" s="44">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="44">
-        <v>38</v>
-      </c>
-      <c r="B39" s="44">
-        <v>1669820400</v>
-      </c>
-      <c r="C39" s="44">
-        <v>10230555</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="29">
-        <v>56</v>
-      </c>
-      <c r="F39" s="44">
-        <v>0</v>
-      </c>
-      <c r="G39" s="44">
-        <v>0</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="I39" s="29">
-        <v>22</v>
-      </c>
-      <c r="J39" s="44">
-        <v>0</v>
-      </c>
-      <c r="K39" s="44">
-        <v>0</v>
-      </c>
-      <c r="L39" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="M39" s="44">
-        <v>3</v>
-      </c>
-      <c r="N39" s="29">
-        <v>0</v>
-      </c>
-      <c r="O39" s="29">
-        <v>0</v>
-      </c>
-      <c r="P39" s="44">
-        <v>2.85</v>
-      </c>
-      <c r="Q39" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="R39" s="44">
-        <v>1.45</v>
-      </c>
-      <c r="S39" s="29">
-        <v>1.97</v>
-      </c>
-      <c r="T39" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U39" s="44">
-        <v>1.98</v>
-      </c>
-      <c r="V39" s="44">
-        <v>13</v>
-      </c>
-      <c r="W39" s="29">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="X39" s="29">
-        <v>1.73</v>
-      </c>
-      <c r="Y39" s="29">
-        <v>16</v>
-      </c>
-      <c r="Z39" s="29">
-        <v>6.1</v>
-      </c>
-      <c r="AA39" s="44">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="44">
-        <v>39</v>
-      </c>
-      <c r="B40" s="44">
-        <v>1669834800</v>
-      </c>
-      <c r="C40" s="44">
-        <v>10230547</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="29">
-        <v>7463</v>
-      </c>
-      <c r="F40" s="44">
-        <v>0</v>
-      </c>
-      <c r="G40" s="44">
-        <v>0</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" s="29">
-        <v>24</v>
-      </c>
-      <c r="J40" s="44">
-        <v>0</v>
-      </c>
-      <c r="K40" s="44">
-        <v>0</v>
-      </c>
-      <c r="L40" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="M40" s="44">
-        <v>3</v>
-      </c>
-      <c r="N40" s="29">
-        <v>0</v>
-      </c>
-      <c r="O40" s="29">
-        <v>0</v>
-      </c>
-      <c r="P40" s="44">
-        <v>1.41</v>
-      </c>
-      <c r="Q40" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R40" s="44">
-        <v>2.48</v>
-      </c>
-      <c r="S40" s="29">
-        <v>1.99</v>
-      </c>
-      <c r="T40" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U40" s="44">
-        <v>1.92</v>
-      </c>
-      <c r="V40" s="44">
-        <v>5.5</v>
-      </c>
-      <c r="W40" s="29">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="X40" s="29">
-        <v>2.27</v>
-      </c>
-      <c r="Y40" s="29">
-        <v>5.2</v>
-      </c>
-      <c r="Z40" s="29">
-        <v>4.2</v>
-      </c>
-      <c r="AA40" s="44">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="44">
-        <v>40</v>
-      </c>
-      <c r="B41" s="44">
-        <v>1669834800</v>
-      </c>
-      <c r="C41" s="44">
-        <v>10230546</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="29">
-        <v>1489</v>
-      </c>
-      <c r="F41" s="44">
-        <v>0</v>
-      </c>
-      <c r="G41" s="44">
-        <v>0</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="I41" s="29">
-        <v>6</v>
-      </c>
-      <c r="J41" s="44">
-        <v>0</v>
-      </c>
-      <c r="K41" s="44">
-        <v>0</v>
-      </c>
-      <c r="L41" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="M41" s="44">
-        <v>3</v>
-      </c>
-      <c r="N41" s="29">
-        <v>0</v>
-      </c>
-      <c r="O41" s="29">
-        <v>0</v>
-      </c>
-      <c r="P41" s="44">
-        <v>1.45</v>
-      </c>
-      <c r="Q41" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R41" s="44">
-        <v>2.97</v>
-      </c>
-      <c r="S41" s="29">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="T41" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U41" s="44">
-        <v>1.92</v>
-      </c>
-      <c r="V41" s="44">
-        <v>6.95</v>
-      </c>
-      <c r="W41" s="29">
-        <v>2.31</v>
-      </c>
-      <c r="X41" s="29">
-        <v>2.15</v>
-      </c>
-      <c r="Y41" s="29">
-        <v>6.9</v>
-      </c>
-      <c r="Z41" s="29">
-        <v>4.3</v>
-      </c>
-      <c r="AA41" s="44">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="44">
-        <v>41</v>
-      </c>
-      <c r="B42" s="44">
-        <v>1669906800</v>
-      </c>
-      <c r="C42" s="44">
-        <v>10230531</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="29">
-        <v>45</v>
-      </c>
-      <c r="F42" s="44">
-        <v>0</v>
-      </c>
-      <c r="G42" s="44">
-        <v>0</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="I42" s="29">
-        <v>1451</v>
-      </c>
-      <c r="J42" s="44">
-        <v>0</v>
-      </c>
-      <c r="K42" s="44">
-        <v>0</v>
-      </c>
-      <c r="L42" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="M42" s="44">
-        <v>3</v>
-      </c>
-      <c r="N42" s="29">
-        <v>0</v>
-      </c>
-      <c r="O42" s="29">
-        <v>0</v>
-      </c>
-      <c r="P42" s="44">
-        <v>1.52</v>
-      </c>
-      <c r="Q42" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="R42" s="44">
-        <v>1.74</v>
-      </c>
-      <c r="S42" s="29">
-        <v>2.25</v>
-      </c>
-      <c r="T42" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U42" s="44">
-        <v>1.72</v>
-      </c>
-      <c r="V42" s="44">
-        <v>4</v>
-      </c>
-      <c r="W42" s="29">
-        <v>2.12</v>
-      </c>
-      <c r="X42" s="29">
-        <v>3.08</v>
-      </c>
-      <c r="Y42" s="29">
-        <v>3.35</v>
-      </c>
-      <c r="Z42" s="29">
-        <v>3.55</v>
-      </c>
-      <c r="AA42" s="44">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="44">
-        <v>42</v>
-      </c>
-      <c r="B43" s="44">
-        <v>1669906800</v>
-      </c>
-      <c r="C43" s="44">
-        <v>10230535</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="29">
-        <v>5</v>
-      </c>
-      <c r="F43" s="44">
-        <v>0</v>
-      </c>
-      <c r="G43" s="44">
-        <v>0</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="I43" s="29">
-        <v>32</v>
-      </c>
-      <c r="J43" s="44">
-        <v>0</v>
-      </c>
-      <c r="K43" s="44">
-        <v>0</v>
-      </c>
-      <c r="L43" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="M43" s="44">
-        <v>3</v>
-      </c>
-      <c r="N43" s="29">
-        <v>0</v>
-      </c>
-      <c r="O43" s="29">
-        <v>0</v>
-      </c>
-      <c r="P43" s="44">
-        <v>1.41</v>
-      </c>
-      <c r="Q43" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R43" s="44">
-        <v>3</v>
-      </c>
-      <c r="S43" s="29">
-        <v>2.04</v>
-      </c>
-      <c r="T43" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U43" s="44">
-        <v>1.94</v>
-      </c>
-      <c r="V43" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="W43" s="29">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="X43" s="29">
-        <v>2.62</v>
-      </c>
-      <c r="Y43" s="29">
-        <v>4.2</v>
-      </c>
-      <c r="Z43" s="29">
-        <v>3.88</v>
-      </c>
-      <c r="AA43" s="44">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="44">
-        <v>1669921200</v>
-      </c>
-      <c r="C44" s="44">
-        <v>10230573</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="29">
-        <v>15</v>
-      </c>
-      <c r="F44" s="44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="44">
-        <v>0</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I44" s="29">
-        <v>26</v>
-      </c>
-      <c r="J44" s="44">
-        <v>0</v>
-      </c>
-      <c r="K44" s="44">
-        <v>0</v>
-      </c>
-      <c r="L44" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="M44" s="44">
-        <v>3</v>
-      </c>
-      <c r="N44" s="29">
-        <v>0</v>
-      </c>
-      <c r="O44" s="29">
-        <v>0</v>
-      </c>
-      <c r="P44" s="44">
-        <v>1.67</v>
-      </c>
-      <c r="Q44" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R44" s="44">
-        <v>2.25</v>
-      </c>
-      <c r="S44" s="29">
-        <v>1.73</v>
-      </c>
-      <c r="T44" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U44" s="44">
-        <v>2.29</v>
-      </c>
-      <c r="V44" s="44">
-        <v>9.4</v>
-      </c>
-      <c r="W44" s="29">
-        <v>2.65</v>
-      </c>
-      <c r="X44" s="29">
-        <v>1.75</v>
-      </c>
-      <c r="Y44" s="29">
-        <v>14</v>
-      </c>
-      <c r="Z44" s="29">
-        <v>6</v>
-      </c>
-      <c r="AA44" s="44">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="44">
-        <v>44</v>
-      </c>
-      <c r="B45" s="44">
-        <v>1669921200</v>
-      </c>
-      <c r="C45" s="44">
-        <v>10230554</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="29">
-        <v>19</v>
-      </c>
-      <c r="F45" s="44">
-        <v>0</v>
-      </c>
-      <c r="G45" s="44">
-        <v>0</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="I45" s="29">
-        <v>8</v>
-      </c>
-      <c r="J45" s="44">
-        <v>0</v>
-      </c>
-      <c r="K45" s="44">
-        <v>0</v>
-      </c>
-      <c r="L45" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="M45" s="44">
-        <v>3</v>
-      </c>
-      <c r="N45" s="29">
-        <v>0</v>
-      </c>
-      <c r="O45" s="29">
-        <v>0</v>
-      </c>
-      <c r="P45" s="44">
-        <v>2.67</v>
-      </c>
-      <c r="Q45" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="R45" s="44">
-        <v>1.53</v>
-      </c>
-      <c r="S45" s="29">
-        <v>2.98</v>
-      </c>
-      <c r="T45" s="44">
-        <v>3.5</v>
-      </c>
-      <c r="U45" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="V45" s="44">
-        <v>8.5</v>
-      </c>
-      <c r="W45" s="29">
-        <v>2.72</v>
-      </c>
-      <c r="X45" s="29">
-        <v>1.78</v>
-      </c>
-      <c r="Y45" s="29">
-        <v>12</v>
-      </c>
-      <c r="Z45" s="29">
-        <v>6.2</v>
-      </c>
-      <c r="AA45" s="44">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="44">
-        <v>45</v>
-      </c>
-      <c r="B46" s="44">
-        <v>1669993200</v>
-      </c>
-      <c r="C46" s="44">
-        <v>10230549</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="29">
-        <v>30</v>
-      </c>
-      <c r="F46" s="44">
-        <v>0</v>
-      </c>
-      <c r="G46" s="44">
-        <v>0</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="I46" s="29">
-        <v>14</v>
-      </c>
-      <c r="J46" s="44">
-        <v>0</v>
-      </c>
-      <c r="K46" s="44">
-        <v>0</v>
-      </c>
-      <c r="L46" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="M46" s="44">
-        <v>3</v>
-      </c>
-      <c r="N46" s="29">
-        <v>0</v>
-      </c>
-      <c r="O46" s="29">
-        <v>0</v>
-      </c>
-      <c r="P46" s="44">
-        <v>1.49</v>
-      </c>
-      <c r="Q46" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R46" s="44">
-        <v>2.7</v>
-      </c>
-      <c r="S46" s="29">
-        <v>2.17</v>
-      </c>
-      <c r="T46" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U46" s="44">
-        <v>1.83</v>
-      </c>
-      <c r="V46" s="44">
-        <v>5.55</v>
-      </c>
-      <c r="W46" s="29">
-        <v>2.25</v>
-      </c>
-      <c r="X46" s="29">
-        <v>2.42</v>
-      </c>
-      <c r="Y46" s="29">
-        <v>5.2</v>
-      </c>
-      <c r="Z46" s="29">
-        <v>3.8</v>
-      </c>
-      <c r="AA46" s="44">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="44">
-        <v>46</v>
-      </c>
-      <c r="B47" s="44">
-        <v>1669993200</v>
-      </c>
-      <c r="C47" s="44">
-        <v>10230544</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" s="29">
-        <v>35</v>
-      </c>
-      <c r="F47" s="44">
-        <v>0</v>
-      </c>
-      <c r="G47" s="44">
-        <v>0</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" s="29">
-        <v>27</v>
-      </c>
-      <c r="J47" s="44">
-        <v>0</v>
-      </c>
-      <c r="K47" s="44">
-        <v>0</v>
-      </c>
-      <c r="L47" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="M47" s="44">
-        <v>3</v>
-      </c>
-      <c r="N47" s="29">
-        <v>0</v>
-      </c>
-      <c r="O47" s="29">
-        <v>0</v>
-      </c>
-      <c r="P47" s="44">
-        <v>2.88</v>
-      </c>
-      <c r="Q47" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="R47" s="44">
-        <v>1.45</v>
-      </c>
-      <c r="S47" s="29">
-        <v>1.98</v>
-      </c>
-      <c r="T47" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U47" s="44">
-        <v>1.95</v>
-      </c>
-      <c r="V47" s="44">
-        <v>10</v>
-      </c>
-      <c r="W47" s="29">
-        <v>2.46</v>
-      </c>
-      <c r="X47" s="29">
-        <v>1.89</v>
-      </c>
-      <c r="Y47" s="29">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="Z47" s="29">
-        <v>5.4</v>
-      </c>
-      <c r="AA47" s="44">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="44">
-        <v>47</v>
-      </c>
-      <c r="B48" s="44">
-        <v>1670007600</v>
-      </c>
-      <c r="C48" s="44">
-        <v>10230553</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="29">
-        <v>7</v>
-      </c>
-      <c r="F48" s="44">
-        <v>0</v>
-      </c>
-      <c r="G48" s="44">
-        <v>0</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="I48" s="29">
-        <v>4</v>
-      </c>
-      <c r="J48" s="44">
-        <v>0</v>
-      </c>
-      <c r="K48" s="44">
-        <v>0</v>
-      </c>
-      <c r="L48" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="M48" s="44">
-        <v>3</v>
-      </c>
-      <c r="N48" s="29">
-        <v>0</v>
-      </c>
-      <c r="O48" s="29">
-        <v>0</v>
-      </c>
-      <c r="P48" s="44">
-        <v>2.6</v>
-      </c>
-      <c r="Q48" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="R48" s="44">
-        <v>1.53</v>
-      </c>
-      <c r="S48" s="29">
-        <v>1.78</v>
-      </c>
-      <c r="T48" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U48" s="44">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="V48" s="44">
-        <v>8.9</v>
-      </c>
-      <c r="W48" s="29">
-        <v>2.65</v>
-      </c>
-      <c r="X48" s="29">
-        <v>1.84</v>
-      </c>
-      <c r="Y48" s="29">
-        <v>12</v>
-      </c>
-      <c r="Z48" s="29">
-        <v>5.55</v>
-      </c>
-      <c r="AA48" s="44">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="44">
-        <v>48</v>
-      </c>
-      <c r="B49" s="44">
-        <v>1670007600</v>
-      </c>
-      <c r="C49" s="44">
-        <v>10230558</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="29">
-        <v>955</v>
-      </c>
-      <c r="F49" s="44">
-        <v>0</v>
-      </c>
-      <c r="G49" s="44">
-        <v>0</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I49" s="29">
-        <v>20</v>
-      </c>
-      <c r="J49" s="44">
-        <v>0</v>
-      </c>
-      <c r="K49" s="44">
-        <v>0</v>
-      </c>
-      <c r="L49" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="M49" s="44">
-        <v>3</v>
-      </c>
-      <c r="N49" s="29">
-        <v>0</v>
-      </c>
-      <c r="O49" s="29">
-        <v>0</v>
-      </c>
-      <c r="P49" s="44">
-        <v>1.48</v>
-      </c>
-      <c r="Q49" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="R49" s="44">
-        <v>2.75</v>
-      </c>
-      <c r="S49" s="29">
-        <v>2.04</v>
-      </c>
-      <c r="T49" s="44">
-        <v>2.5</v>
-      </c>
-      <c r="U49" s="44">
-        <v>1.92</v>
-      </c>
-      <c r="V49" s="44">
-        <v>3.5</v>
-      </c>
-      <c r="W49" s="29">
-        <v>2.25</v>
-      </c>
-      <c r="X49" s="29">
-        <v>3.18</v>
-      </c>
-      <c r="Y49" s="29">
-        <v>2.87</v>
-      </c>
-      <c r="Z49" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="AA49" s="44">
-        <v>2.61</v>
-      </c>
+    <row r="18" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="43"/>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{EE2F20B3-2CAB-4FD8-97BE-93C792EE71D7}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="B1:I1934" xr:uid="{B2141296-918F-B64F-AD7A-EC7AFFBA4D94}">
+        <filterColumn colId="0">
+          <filters>
+            <filter val="Beta Test Phase 1"/>
+            <filter val="KOLs"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
     <customSheetView guid="{BE3B438B-38A7-4CD8-8BE7-9E446A9B2CDC}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="D1:D2497" xr:uid="{0AB119FC-3892-AC42-8F6E-3BB3D772F1E5}">
+      <autoFilter ref="D1:D2497" xr:uid="{D3ED11C1-D9F3-7A4A-9751-2CBB4E603FF6}">
         <filterColumn colId="0">
           <filters>
             <filter val="bundle boxes"/>
             <filter val="Mystery Box"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{EE2F20B3-2CAB-4FD8-97BE-93C792EE71D7}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:I1934" xr:uid="{6A790438-1EB6-384C-BB01-5B2EAE2D82BF}">
-        <filterColumn colId="0">
-          <filters>
-            <filter val="Beta Test Phase 1"/>
-            <filter val="KOLs"/>
           </filters>
         </filterColumn>
       </autoFilter>
@@ -5231,65 +1810,65 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="31"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="37" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="31"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
       <c r="K8" s="7">
         <v>20</v>
       </c>
@@ -5321,7 +1900,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -5355,7 +1934,7 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="D11" s="40"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
@@ -5379,7 +1958,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="D12" s="40"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5405,7 +1984,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="D13" s="40"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
@@ -5433,7 +2012,7 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="D14" s="40"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="9" t="s">
         <v>1</v>
       </c>
@@ -5460,7 +2039,7 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="D15" s="40"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="9" t="s">
         <v>1</v>
       </c>
@@ -5487,7 +2066,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="D16" s="40"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="9" t="s">
         <v>1</v>
       </c>
@@ -5514,7 +2093,7 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="D17" s="40"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="9" t="s">
         <v>1</v>
       </c>
@@ -5547,7 +2126,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="34" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="13" t="s">
@@ -5572,7 +2151,7 @@
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="40"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="13" t="s">
         <v>13</v>
       </c>
@@ -5595,7 +2174,7 @@
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="40"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5618,7 +2197,7 @@
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="40"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="20" t="s">
         <v>1</v>
       </c>
@@ -15157,6 +11736,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="D10:D17"/>
@@ -15164,12 +11749,6 @@
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
